--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3284"/>
+  <dimension ref="A1:I3286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95575,6 +95575,64 @@
         <v>434</v>
       </c>
     </row>
+    <row r="3285" spans="1:9">
+      <c r="A3285" s="1">
+        <v>3283</v>
+      </c>
+      <c r="B3285" s="2">
+        <v>44776</v>
+      </c>
+      <c r="C3285">
+        <v>191</v>
+      </c>
+      <c r="D3285">
+        <v>415</v>
+      </c>
+      <c r="E3285">
+        <v>439</v>
+      </c>
+      <c r="F3285">
+        <v>222</v>
+      </c>
+      <c r="G3285">
+        <v>314</v>
+      </c>
+      <c r="H3285">
+        <v>502</v>
+      </c>
+      <c r="I3285">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3286" spans="1:9">
+      <c r="A3286" s="1">
+        <v>3284</v>
+      </c>
+      <c r="B3286" s="2">
+        <v>44777</v>
+      </c>
+      <c r="C3286">
+        <v>187</v>
+      </c>
+      <c r="D3286">
+        <v>404</v>
+      </c>
+      <c r="E3286">
+        <v>426</v>
+      </c>
+      <c r="F3286">
+        <v>213</v>
+      </c>
+      <c r="G3286">
+        <v>303</v>
+      </c>
+      <c r="H3286">
+        <v>491</v>
+      </c>
+      <c r="I3286">
+        <v>433</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3286"/>
+  <dimension ref="A1:I3289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95633,6 +95633,93 @@
         <v>433</v>
       </c>
     </row>
+    <row r="3287" spans="1:9">
+      <c r="A3287" s="1">
+        <v>3285</v>
+      </c>
+      <c r="B3287" s="2">
+        <v>44778</v>
+      </c>
+      <c r="C3287">
+        <v>180</v>
+      </c>
+      <c r="D3287">
+        <v>398</v>
+      </c>
+      <c r="E3287">
+        <v>413</v>
+      </c>
+      <c r="F3287">
+        <v>209</v>
+      </c>
+      <c r="G3287">
+        <v>299</v>
+      </c>
+      <c r="H3287">
+        <v>483</v>
+      </c>
+      <c r="I3287">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3288" spans="1:9">
+      <c r="A3288" s="1">
+        <v>3286</v>
+      </c>
+      <c r="B3288" s="2">
+        <v>44781</v>
+      </c>
+      <c r="C3288">
+        <v>184</v>
+      </c>
+      <c r="D3288">
+        <v>397</v>
+      </c>
+      <c r="E3288">
+        <v>416</v>
+      </c>
+      <c r="F3288">
+        <v>210</v>
+      </c>
+      <c r="G3288">
+        <v>297</v>
+      </c>
+      <c r="H3288">
+        <v>481</v>
+      </c>
+      <c r="I3288">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3289" spans="1:9">
+      <c r="A3289" s="1">
+        <v>3287</v>
+      </c>
+      <c r="B3289" s="2">
+        <v>44782</v>
+      </c>
+      <c r="C3289">
+        <v>186</v>
+      </c>
+      <c r="D3289">
+        <v>406</v>
+      </c>
+      <c r="E3289">
+        <v>428</v>
+      </c>
+      <c r="F3289">
+        <v>215</v>
+      </c>
+      <c r="G3289">
+        <v>306</v>
+      </c>
+      <c r="H3289">
+        <v>492</v>
+      </c>
+      <c r="I3289">
+        <v>420</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3289"/>
+  <dimension ref="A1:I3290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95720,6 +95720,35 @@
         <v>420</v>
       </c>
     </row>
+    <row r="3290" spans="1:9">
+      <c r="A3290" s="1">
+        <v>3288</v>
+      </c>
+      <c r="B3290" s="2">
+        <v>44783</v>
+      </c>
+      <c r="C3290">
+        <v>177</v>
+      </c>
+      <c r="D3290">
+        <v>386</v>
+      </c>
+      <c r="E3290">
+        <v>406</v>
+      </c>
+      <c r="F3290">
+        <v>204</v>
+      </c>
+      <c r="G3290">
+        <v>292</v>
+      </c>
+      <c r="H3290">
+        <v>477</v>
+      </c>
+      <c r="I3290">
+        <v>412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3290"/>
+  <dimension ref="A1:I3291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95749,6 +95749,35 @@
         <v>412</v>
       </c>
     </row>
+    <row r="3291" spans="1:9">
+      <c r="A3291" s="1">
+        <v>3289</v>
+      </c>
+      <c r="B3291" s="2">
+        <v>44784</v>
+      </c>
+      <c r="C3291">
+        <v>169</v>
+      </c>
+      <c r="D3291">
+        <v>369</v>
+      </c>
+      <c r="E3291">
+        <v>395</v>
+      </c>
+      <c r="F3291">
+        <v>195</v>
+      </c>
+      <c r="G3291">
+        <v>285</v>
+      </c>
+      <c r="H3291">
+        <v>468</v>
+      </c>
+      <c r="I3291">
+        <v>396</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3291"/>
+  <dimension ref="A1:I3294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95778,6 +95778,93 @@
         <v>396</v>
       </c>
     </row>
+    <row r="3292" spans="1:9">
+      <c r="A3292" s="1">
+        <v>3290</v>
+      </c>
+      <c r="B3292" s="2">
+        <v>44785</v>
+      </c>
+      <c r="C3292">
+        <v>174</v>
+      </c>
+      <c r="D3292">
+        <v>377</v>
+      </c>
+      <c r="E3292">
+        <v>404</v>
+      </c>
+      <c r="F3292">
+        <v>200</v>
+      </c>
+      <c r="G3292">
+        <v>288</v>
+      </c>
+      <c r="H3292">
+        <v>475</v>
+      </c>
+      <c r="I3292">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3293" spans="1:9">
+      <c r="A3293" s="1">
+        <v>3291</v>
+      </c>
+      <c r="B3293" s="2">
+        <v>44788</v>
+      </c>
+      <c r="C3293">
+        <v>174</v>
+      </c>
+      <c r="D3293">
+        <v>378</v>
+      </c>
+      <c r="E3293">
+        <v>409</v>
+      </c>
+      <c r="F3293">
+        <v>201</v>
+      </c>
+      <c r="G3293">
+        <v>289</v>
+      </c>
+      <c r="H3293">
+        <v>477</v>
+      </c>
+      <c r="I3293">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3294" spans="1:9">
+      <c r="A3294" s="1">
+        <v>3292</v>
+      </c>
+      <c r="B3294" s="2">
+        <v>44789</v>
+      </c>
+      <c r="C3294">
+        <v>178</v>
+      </c>
+      <c r="D3294">
+        <v>385</v>
+      </c>
+      <c r="E3294">
+        <v>415</v>
+      </c>
+      <c r="F3294">
+        <v>205</v>
+      </c>
+      <c r="G3294">
+        <v>293</v>
+      </c>
+      <c r="H3294">
+        <v>480</v>
+      </c>
+      <c r="I3294">
+        <v>409</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3294"/>
+  <dimension ref="A1:I3295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95865,6 +95865,35 @@
         <v>409</v>
       </c>
     </row>
+    <row r="3295" spans="1:9">
+      <c r="A3295" s="1">
+        <v>3293</v>
+      </c>
+      <c r="B3295" s="2">
+        <v>44790</v>
+      </c>
+      <c r="C3295">
+        <v>180</v>
+      </c>
+      <c r="D3295">
+        <v>391</v>
+      </c>
+      <c r="E3295">
+        <v>424</v>
+      </c>
+      <c r="F3295">
+        <v>209</v>
+      </c>
+      <c r="G3295">
+        <v>297</v>
+      </c>
+      <c r="H3295">
+        <v>488</v>
+      </c>
+      <c r="I3295">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3295"/>
+  <dimension ref="A1:I3297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95894,6 +95894,64 @@
         <v>413</v>
       </c>
     </row>
+    <row r="3296" spans="1:9">
+      <c r="A3296" s="1">
+        <v>3294</v>
+      </c>
+      <c r="B3296" s="2">
+        <v>44791</v>
+      </c>
+      <c r="C3296">
+        <v>182</v>
+      </c>
+      <c r="D3296">
+        <v>394</v>
+      </c>
+      <c r="E3296">
+        <v>420</v>
+      </c>
+      <c r="F3296">
+        <v>208</v>
+      </c>
+      <c r="G3296">
+        <v>295</v>
+      </c>
+      <c r="H3296">
+        <v>486</v>
+      </c>
+      <c r="I3296">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="3297" spans="1:9">
+      <c r="A3297" s="1">
+        <v>3295</v>
+      </c>
+      <c r="B3297" s="2">
+        <v>44792</v>
+      </c>
+      <c r="C3297">
+        <v>188</v>
+      </c>
+      <c r="D3297">
+        <v>401</v>
+      </c>
+      <c r="E3297">
+        <v>422</v>
+      </c>
+      <c r="F3297">
+        <v>211</v>
+      </c>
+      <c r="G3297">
+        <v>298</v>
+      </c>
+      <c r="H3297">
+        <v>492</v>
+      </c>
+      <c r="I3297">
+        <v>415</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3297"/>
+  <dimension ref="A1:I3300"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -95952,6 +95952,93 @@
         <v>415</v>
       </c>
     </row>
+    <row r="3298" spans="1:9">
+      <c r="A3298" s="1">
+        <v>3296</v>
+      </c>
+      <c r="B3298" s="2">
+        <v>44795</v>
+      </c>
+      <c r="C3298">
+        <v>199</v>
+      </c>
+      <c r="D3298">
+        <v>412</v>
+      </c>
+      <c r="E3298">
+        <v>430</v>
+      </c>
+      <c r="F3298">
+        <v>218</v>
+      </c>
+      <c r="G3298">
+        <v>303</v>
+      </c>
+      <c r="H3298">
+        <v>501</v>
+      </c>
+      <c r="I3298">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3299" spans="1:9">
+      <c r="A3299" s="1">
+        <v>3297</v>
+      </c>
+      <c r="B3299" s="2">
+        <v>44796</v>
+      </c>
+      <c r="C3299">
+        <v>193</v>
+      </c>
+      <c r="D3299">
+        <v>408</v>
+      </c>
+      <c r="E3299">
+        <v>418</v>
+      </c>
+      <c r="F3299">
+        <v>214</v>
+      </c>
+      <c r="G3299">
+        <v>300</v>
+      </c>
+      <c r="H3299">
+        <v>493</v>
+      </c>
+      <c r="I3299">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3300" spans="1:9">
+      <c r="A3300" s="1">
+        <v>3298</v>
+      </c>
+      <c r="B3300" s="2">
+        <v>44797</v>
+      </c>
+      <c r="C3300">
+        <v>186</v>
+      </c>
+      <c r="D3300">
+        <v>400</v>
+      </c>
+      <c r="E3300">
+        <v>408</v>
+      </c>
+      <c r="F3300">
+        <v>206</v>
+      </c>
+      <c r="G3300">
+        <v>289</v>
+      </c>
+      <c r="H3300">
+        <v>482</v>
+      </c>
+      <c r="I3300">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3300"/>
+  <dimension ref="A1:I3305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96039,6 +96039,151 @@
         <v>407</v>
       </c>
     </row>
+    <row r="3301" spans="1:9">
+      <c r="A3301" s="1">
+        <v>3299</v>
+      </c>
+      <c r="B3301" s="2">
+        <v>44798</v>
+      </c>
+      <c r="C3301">
+        <v>189</v>
+      </c>
+      <c r="D3301">
+        <v>399</v>
+      </c>
+      <c r="E3301">
+        <v>410</v>
+      </c>
+      <c r="F3301">
+        <v>209</v>
+      </c>
+      <c r="G3301">
+        <v>290</v>
+      </c>
+      <c r="H3301">
+        <v>482</v>
+      </c>
+      <c r="I3301">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3302" spans="1:9">
+      <c r="A3302" s="1">
+        <v>3300</v>
+      </c>
+      <c r="B3302" s="2">
+        <v>44799</v>
+      </c>
+      <c r="C3302">
+        <v>193</v>
+      </c>
+      <c r="D3302">
+        <v>403</v>
+      </c>
+      <c r="E3302">
+        <v>416</v>
+      </c>
+      <c r="F3302">
+        <v>212</v>
+      </c>
+      <c r="G3302">
+        <v>293</v>
+      </c>
+      <c r="H3302">
+        <v>489</v>
+      </c>
+      <c r="I3302">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3303" spans="1:9">
+      <c r="A3303" s="1">
+        <v>3301</v>
+      </c>
+      <c r="B3303" s="2">
+        <v>44802</v>
+      </c>
+      <c r="C3303">
+        <v>196</v>
+      </c>
+      <c r="D3303">
+        <v>416</v>
+      </c>
+      <c r="E3303">
+        <v>426</v>
+      </c>
+      <c r="F3303">
+        <v>217</v>
+      </c>
+      <c r="G3303">
+        <v>299</v>
+      </c>
+      <c r="H3303">
+        <v>498</v>
+      </c>
+      <c r="I3303">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3304" spans="1:9">
+      <c r="A3304" s="1">
+        <v>3302</v>
+      </c>
+      <c r="B3304" s="2">
+        <v>44803</v>
+      </c>
+      <c r="C3304">
+        <v>199</v>
+      </c>
+      <c r="D3304">
+        <v>421</v>
+      </c>
+      <c r="E3304">
+        <v>432</v>
+      </c>
+      <c r="F3304">
+        <v>219</v>
+      </c>
+      <c r="G3304">
+        <v>295</v>
+      </c>
+      <c r="H3304">
+        <v>500</v>
+      </c>
+      <c r="I3304">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3305" spans="1:9">
+      <c r="A3305" s="1">
+        <v>3303</v>
+      </c>
+      <c r="B3305" s="2">
+        <v>44804</v>
+      </c>
+      <c r="C3305">
+        <v>198</v>
+      </c>
+      <c r="D3305">
+        <v>424</v>
+      </c>
+      <c r="E3305">
+        <v>432</v>
+      </c>
+      <c r="F3305">
+        <v>218</v>
+      </c>
+      <c r="G3305">
+        <v>295</v>
+      </c>
+      <c r="H3305">
+        <v>499</v>
+      </c>
+      <c r="I3305">
+        <v>422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3305"/>
+  <dimension ref="A1:I3308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96184,6 +96184,93 @@
         <v>422</v>
       </c>
     </row>
+    <row r="3306" spans="1:9">
+      <c r="A3306" s="1">
+        <v>3304</v>
+      </c>
+      <c r="B3306" s="2">
+        <v>44805</v>
+      </c>
+      <c r="C3306">
+        <v>203</v>
+      </c>
+      <c r="D3306">
+        <v>425</v>
+      </c>
+      <c r="E3306">
+        <v>436</v>
+      </c>
+      <c r="F3306">
+        <v>219</v>
+      </c>
+      <c r="G3306">
+        <v>291</v>
+      </c>
+      <c r="H3306">
+        <v>502</v>
+      </c>
+      <c r="I3306">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3307" spans="1:9">
+      <c r="A3307" s="1">
+        <v>3305</v>
+      </c>
+      <c r="B3307" s="2">
+        <v>44806</v>
+      </c>
+      <c r="C3307">
+        <v>204</v>
+      </c>
+      <c r="D3307">
+        <v>429</v>
+      </c>
+      <c r="E3307">
+        <v>436</v>
+      </c>
+      <c r="F3307">
+        <v>223</v>
+      </c>
+      <c r="G3307">
+        <v>292</v>
+      </c>
+      <c r="H3307">
+        <v>505</v>
+      </c>
+      <c r="I3307">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="3308" spans="1:9">
+      <c r="A3308" s="1">
+        <v>3306</v>
+      </c>
+      <c r="B3308" s="2">
+        <v>44809</v>
+      </c>
+      <c r="C3308">
+        <v>204</v>
+      </c>
+      <c r="D3308">
+        <v>429</v>
+      </c>
+      <c r="E3308">
+        <v>436</v>
+      </c>
+      <c r="F3308">
+        <v>223</v>
+      </c>
+      <c r="G3308">
+        <v>292</v>
+      </c>
+      <c r="H3308">
+        <v>505</v>
+      </c>
+      <c r="I3308">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3308"/>
+  <dimension ref="A1:I3310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96271,6 +96271,64 @@
         <v>430</v>
       </c>
     </row>
+    <row r="3309" spans="1:9">
+      <c r="A3309" s="1">
+        <v>3307</v>
+      </c>
+      <c r="B3309" s="2">
+        <v>44810</v>
+      </c>
+      <c r="C3309">
+        <v>193</v>
+      </c>
+      <c r="D3309">
+        <v>427</v>
+      </c>
+      <c r="E3309">
+        <v>435</v>
+      </c>
+      <c r="F3309">
+        <v>221</v>
+      </c>
+      <c r="G3309">
+        <v>285</v>
+      </c>
+      <c r="H3309">
+        <v>499</v>
+      </c>
+      <c r="I3309">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3310" spans="1:9">
+      <c r="A3310" s="1">
+        <v>3308</v>
+      </c>
+      <c r="B3310" s="2">
+        <v>44811</v>
+      </c>
+      <c r="C3310">
+        <v>194</v>
+      </c>
+      <c r="D3310">
+        <v>424</v>
+      </c>
+      <c r="E3310">
+        <v>433</v>
+      </c>
+      <c r="F3310">
+        <v>223</v>
+      </c>
+      <c r="G3310">
+        <v>287</v>
+      </c>
+      <c r="H3310">
+        <v>499</v>
+      </c>
+      <c r="I3310">
+        <v>429</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3310"/>
+  <dimension ref="A1:I3316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96329,6 +96329,162 @@
         <v>429</v>
       </c>
     </row>
+    <row r="3311" spans="1:9">
+      <c r="A3311" s="1">
+        <v>3309</v>
+      </c>
+      <c r="B3311" s="2">
+        <v>44812</v>
+      </c>
+      <c r="C3311">
+        <v>186</v>
+      </c>
+      <c r="D3311">
+        <v>411</v>
+      </c>
+      <c r="E3311">
+        <v>426</v>
+      </c>
+      <c r="F3311">
+        <v>215</v>
+      </c>
+      <c r="G3311">
+        <v>279</v>
+      </c>
+      <c r="H3311">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:9">
+      <c r="A3312" s="1">
+        <v>3310</v>
+      </c>
+      <c r="B3312" s="2">
+        <v>44813</v>
+      </c>
+      <c r="C3312">
+        <v>181</v>
+      </c>
+      <c r="D3312">
+        <v>400</v>
+      </c>
+      <c r="E3312">
+        <v>422</v>
+      </c>
+      <c r="F3312">
+        <v>210</v>
+      </c>
+      <c r="G3312">
+        <v>273</v>
+      </c>
+      <c r="H3312">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:8">
+      <c r="A3313" s="1">
+        <v>3311</v>
+      </c>
+      <c r="B3313" s="2">
+        <v>44816</v>
+      </c>
+      <c r="C3313">
+        <v>178</v>
+      </c>
+      <c r="D3313">
+        <v>378</v>
+      </c>
+      <c r="E3313">
+        <v>416</v>
+      </c>
+      <c r="F3313">
+        <v>202</v>
+      </c>
+      <c r="G3313">
+        <v>269</v>
+      </c>
+      <c r="H3313">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:8">
+      <c r="A3314" s="1">
+        <v>3312</v>
+      </c>
+      <c r="B3314" s="2">
+        <v>44817</v>
+      </c>
+      <c r="C3314">
+        <v>186</v>
+      </c>
+      <c r="D3314">
+        <v>391</v>
+      </c>
+      <c r="E3314">
+        <v>427</v>
+      </c>
+      <c r="F3314">
+        <v>214</v>
+      </c>
+      <c r="G3314">
+        <v>274</v>
+      </c>
+      <c r="H3314">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:8">
+      <c r="A3315" s="1">
+        <v>3313</v>
+      </c>
+      <c r="B3315" s="2">
+        <v>44818</v>
+      </c>
+      <c r="C3315">
+        <v>193</v>
+      </c>
+      <c r="D3315">
+        <v>399</v>
+      </c>
+      <c r="E3315">
+        <v>428</v>
+      </c>
+      <c r="F3315">
+        <v>225</v>
+      </c>
+      <c r="G3315">
+        <v>277</v>
+      </c>
+      <c r="H3315">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:8">
+      <c r="A3316" s="1">
+        <v>3314</v>
+      </c>
+      <c r="B3316" s="2">
+        <v>44819</v>
+      </c>
+      <c r="C3316">
+        <v>193</v>
+      </c>
+      <c r="D3316">
+        <v>399</v>
+      </c>
+      <c r="E3316">
+        <v>428</v>
+      </c>
+      <c r="F3316">
+        <v>225</v>
+      </c>
+      <c r="G3316">
+        <v>277</v>
+      </c>
+      <c r="H3316">
+        <v>492</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3316"/>
+  <dimension ref="A1:I3320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96354,6 +96354,9 @@
       <c r="H3311">
         <v>491</v>
       </c>
+      <c r="I3311">
+        <v>418</v>
+      </c>
     </row>
     <row r="3312" spans="1:9">
       <c r="A3312" s="1">
@@ -96380,8 +96383,11 @@
       <c r="H3312">
         <v>482</v>
       </c>
-    </row>
-    <row r="3313" spans="1:8">
+      <c r="I3312">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:9">
       <c r="A3313" s="1">
         <v>3311</v>
       </c>
@@ -96406,8 +96412,11 @@
       <c r="H3313">
         <v>475</v>
       </c>
-    </row>
-    <row r="3314" spans="1:8">
+      <c r="I3313">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:9">
       <c r="A3314" s="1">
         <v>3312</v>
       </c>
@@ -96432,8 +96441,11 @@
       <c r="H3314">
         <v>487</v>
       </c>
-    </row>
-    <row r="3315" spans="1:8">
+      <c r="I3314">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:9">
       <c r="A3315" s="1">
         <v>3313</v>
       </c>
@@ -96458,8 +96470,11 @@
       <c r="H3315">
         <v>492</v>
       </c>
-    </row>
-    <row r="3316" spans="1:8">
+      <c r="I3315">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:9">
       <c r="A3316" s="1">
         <v>3314</v>
       </c>
@@ -96467,22 +96482,141 @@
         <v>44819</v>
       </c>
       <c r="C3316">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D3316">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E3316">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F3316">
         <v>225</v>
       </c>
       <c r="G3316">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H3316">
-        <v>492</v>
+        <v>488</v>
+      </c>
+      <c r="I3316">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:9">
+      <c r="A3317" s="1">
+        <v>3315</v>
+      </c>
+      <c r="B3317" s="2">
+        <v>44820</v>
+      </c>
+      <c r="C3317">
+        <v>190</v>
+      </c>
+      <c r="D3317">
+        <v>413</v>
+      </c>
+      <c r="E3317">
+        <v>434</v>
+      </c>
+      <c r="F3317">
+        <v>231</v>
+      </c>
+      <c r="G3317">
+        <v>282</v>
+      </c>
+      <c r="H3317">
+        <v>499</v>
+      </c>
+      <c r="I3317">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:9">
+      <c r="A3318" s="1">
+        <v>3316</v>
+      </c>
+      <c r="B3318" s="2">
+        <v>44823</v>
+      </c>
+      <c r="C3318">
+        <v>190</v>
+      </c>
+      <c r="D3318">
+        <v>414</v>
+      </c>
+      <c r="E3318">
+        <v>434</v>
+      </c>
+      <c r="F3318">
+        <v>229</v>
+      </c>
+      <c r="G3318">
+        <v>280</v>
+      </c>
+      <c r="H3318">
+        <v>497</v>
+      </c>
+      <c r="I3318">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:9">
+      <c r="A3319" s="1">
+        <v>3317</v>
+      </c>
+      <c r="B3319" s="2">
+        <v>44824</v>
+      </c>
+      <c r="C3319">
+        <v>190</v>
+      </c>
+      <c r="D3319">
+        <v>421</v>
+      </c>
+      <c r="E3319">
+        <v>440</v>
+      </c>
+      <c r="F3319">
+        <v>230</v>
+      </c>
+      <c r="G3319">
+        <v>285</v>
+      </c>
+      <c r="H3319">
+        <v>502</v>
+      </c>
+      <c r="I3319">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:9">
+      <c r="A3320" s="1">
+        <v>3318</v>
+      </c>
+      <c r="B3320" s="2">
+        <v>44825</v>
+      </c>
+      <c r="C3320">
+        <v>193</v>
+      </c>
+      <c r="D3320">
+        <v>417</v>
+      </c>
+      <c r="E3320">
+        <v>444</v>
+      </c>
+      <c r="F3320">
+        <v>226</v>
+      </c>
+      <c r="G3320">
+        <v>284</v>
+      </c>
+      <c r="H3320">
+        <v>502</v>
+      </c>
+      <c r="I3320">
+        <v>427</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3320"/>
+  <dimension ref="A1:I3324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96619,6 +96619,122 @@
         <v>427</v>
       </c>
     </row>
+    <row r="3321" spans="1:9">
+      <c r="A3321" s="1">
+        <v>3319</v>
+      </c>
+      <c r="B3321">
+        <v>278</v>
+      </c>
+      <c r="C3321" s="2">
+        <v>44826</v>
+      </c>
+      <c r="D3321">
+        <v>185</v>
+      </c>
+      <c r="E3321">
+        <v>416</v>
+      </c>
+      <c r="F3321">
+        <v>442</v>
+      </c>
+      <c r="G3321">
+        <v>220</v>
+      </c>
+      <c r="H3321">
+        <v>499</v>
+      </c>
+      <c r="I3321">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:9">
+      <c r="A3322" s="1">
+        <v>3320</v>
+      </c>
+      <c r="B3322">
+        <v>288</v>
+      </c>
+      <c r="C3322" s="2">
+        <v>44827</v>
+      </c>
+      <c r="D3322">
+        <v>192</v>
+      </c>
+      <c r="E3322">
+        <v>432</v>
+      </c>
+      <c r="F3322">
+        <v>456</v>
+      </c>
+      <c r="G3322">
+        <v>227</v>
+      </c>
+      <c r="H3322">
+        <v>513</v>
+      </c>
+      <c r="I3322">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:9">
+      <c r="A3323" s="1">
+        <v>3321</v>
+      </c>
+      <c r="B3323">
+        <v>300</v>
+      </c>
+      <c r="C3323" s="2">
+        <v>44830</v>
+      </c>
+      <c r="D3323">
+        <v>197</v>
+      </c>
+      <c r="E3323">
+        <v>450</v>
+      </c>
+      <c r="F3323">
+        <v>464</v>
+      </c>
+      <c r="G3323">
+        <v>234</v>
+      </c>
+      <c r="H3323">
+        <v>526</v>
+      </c>
+      <c r="I3323">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:9">
+      <c r="A3324" s="1">
+        <v>3322</v>
+      </c>
+      <c r="B3324">
+        <v>303</v>
+      </c>
+      <c r="C3324" s="2">
+        <v>44831</v>
+      </c>
+      <c r="D3324">
+        <v>195</v>
+      </c>
+      <c r="E3324">
+        <v>460</v>
+      </c>
+      <c r="F3324">
+        <v>474</v>
+      </c>
+      <c r="G3324">
+        <v>237</v>
+      </c>
+      <c r="H3324">
+        <v>538</v>
+      </c>
+      <c r="I3324">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3324"/>
+  <dimension ref="A1:I3330"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96735,6 +96735,180 @@
         <v>447</v>
       </c>
     </row>
+    <row r="3325" spans="1:9">
+      <c r="A3325" s="1">
+        <v>3323</v>
+      </c>
+      <c r="B3325">
+        <v>306</v>
+      </c>
+      <c r="C3325" s="2">
+        <v>44832</v>
+      </c>
+      <c r="D3325">
+        <v>208</v>
+      </c>
+      <c r="E3325">
+        <v>461</v>
+      </c>
+      <c r="F3325">
+        <v>484</v>
+      </c>
+      <c r="G3325">
+        <v>246</v>
+      </c>
+      <c r="H3325">
+        <v>545</v>
+      </c>
+      <c r="I3325">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:9">
+      <c r="A3326" s="1">
+        <v>3324</v>
+      </c>
+      <c r="B3326">
+        <v>308</v>
+      </c>
+      <c r="C3326" s="2">
+        <v>44833</v>
+      </c>
+      <c r="D3326">
+        <v>213</v>
+      </c>
+      <c r="E3326">
+        <v>470</v>
+      </c>
+      <c r="F3326">
+        <v>489</v>
+      </c>
+      <c r="G3326">
+        <v>248</v>
+      </c>
+      <c r="H3326">
+        <v>555</v>
+      </c>
+      <c r="I3326">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:9">
+      <c r="A3327" s="1">
+        <v>3325</v>
+      </c>
+      <c r="B3327">
+        <v>295</v>
+      </c>
+      <c r="C3327" s="2">
+        <v>44834</v>
+      </c>
+      <c r="D3327">
+        <v>208</v>
+      </c>
+      <c r="E3327">
+        <v>460</v>
+      </c>
+      <c r="F3327">
+        <v>483</v>
+      </c>
+      <c r="G3327">
+        <v>246</v>
+      </c>
+      <c r="H3327">
+        <v>549</v>
+      </c>
+      <c r="I3327">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:9">
+      <c r="A3328" s="1">
+        <v>3326</v>
+      </c>
+      <c r="B3328">
+        <v>290</v>
+      </c>
+      <c r="C3328" s="2">
+        <v>44837</v>
+      </c>
+      <c r="D3328">
+        <v>207</v>
+      </c>
+      <c r="E3328">
+        <v>451</v>
+      </c>
+      <c r="F3328">
+        <v>476</v>
+      </c>
+      <c r="G3328">
+        <v>245</v>
+      </c>
+      <c r="H3328">
+        <v>542</v>
+      </c>
+      <c r="I3328">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:9">
+      <c r="A3329" s="1">
+        <v>3327</v>
+      </c>
+      <c r="B3329">
+        <v>276</v>
+      </c>
+      <c r="C3329" s="2">
+        <v>44838</v>
+      </c>
+      <c r="D3329">
+        <v>191</v>
+      </c>
+      <c r="E3329">
+        <v>422</v>
+      </c>
+      <c r="F3329">
+        <v>451</v>
+      </c>
+      <c r="G3329">
+        <v>229</v>
+      </c>
+      <c r="H3329">
+        <v>520</v>
+      </c>
+      <c r="I3329">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:9">
+      <c r="A3330" s="1">
+        <v>3328</v>
+      </c>
+      <c r="B3330">
+        <v>283</v>
+      </c>
+      <c r="C3330" s="2">
+        <v>44839</v>
+      </c>
+      <c r="D3330">
+        <v>196</v>
+      </c>
+      <c r="E3330">
+        <v>436</v>
+      </c>
+      <c r="F3330">
+        <v>456</v>
+      </c>
+      <c r="G3330">
+        <v>233</v>
+      </c>
+      <c r="H3330">
+        <v>528</v>
+      </c>
+      <c r="I3330">
+        <v>458</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3330"/>
+  <dimension ref="A1:I3339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -96909,6 +96909,246 @@
         <v>458</v>
       </c>
     </row>
+    <row r="3331" spans="1:9">
+      <c r="A3331" s="1">
+        <v>3329</v>
+      </c>
+      <c r="C3331" s="2">
+        <v>44840</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:9">
+      <c r="A3332" s="1">
+        <v>3330</v>
+      </c>
+      <c r="B3332">
+        <v>286</v>
+      </c>
+      <c r="C3332" s="2">
+        <v>44841</v>
+      </c>
+      <c r="D3332">
+        <v>200</v>
+      </c>
+      <c r="E3332">
+        <v>459</v>
+      </c>
+      <c r="F3332">
+        <v>453</v>
+      </c>
+      <c r="G3332">
+        <v>241</v>
+      </c>
+      <c r="H3332">
+        <v>532</v>
+      </c>
+      <c r="I3332">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:9">
+      <c r="A3333" s="1">
+        <v>3331</v>
+      </c>
+      <c r="B3333">
+        <v>286</v>
+      </c>
+      <c r="C3333" s="2">
+        <v>44844</v>
+      </c>
+      <c r="D3333">
+        <v>200</v>
+      </c>
+      <c r="E3333">
+        <v>459</v>
+      </c>
+      <c r="F3333">
+        <v>453</v>
+      </c>
+      <c r="G3333">
+        <v>241</v>
+      </c>
+      <c r="H3333">
+        <v>532</v>
+      </c>
+      <c r="I3333">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:9">
+      <c r="A3334" s="1">
+        <v>3332</v>
+      </c>
+      <c r="B3334">
+        <v>292</v>
+      </c>
+      <c r="C3334" s="2">
+        <v>44845</v>
+      </c>
+      <c r="D3334">
+        <v>204</v>
+      </c>
+      <c r="E3334">
+        <v>479</v>
+      </c>
+      <c r="F3334">
+        <v>459</v>
+      </c>
+      <c r="G3334">
+        <v>247</v>
+      </c>
+      <c r="H3334">
+        <v>542</v>
+      </c>
+      <c r="I3334">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:9">
+      <c r="A3335" s="1">
+        <v>3333</v>
+      </c>
+      <c r="B3335">
+        <v>297</v>
+      </c>
+      <c r="C3335" s="2">
+        <v>44846</v>
+      </c>
+      <c r="D3335">
+        <v>210</v>
+      </c>
+      <c r="E3335">
+        <v>482</v>
+      </c>
+      <c r="F3335">
+        <v>462</v>
+      </c>
+      <c r="G3335">
+        <v>254</v>
+      </c>
+      <c r="H3335">
+        <v>548</v>
+      </c>
+      <c r="I3335">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:9">
+      <c r="A3336" s="1">
+        <v>3334</v>
+      </c>
+      <c r="B3336">
+        <v>300</v>
+      </c>
+      <c r="C3336" s="2">
+        <v>44847</v>
+      </c>
+      <c r="D3336">
+        <v>212</v>
+      </c>
+      <c r="E3336">
+        <v>480</v>
+      </c>
+      <c r="F3336">
+        <v>466</v>
+      </c>
+      <c r="G3336">
+        <v>257</v>
+      </c>
+      <c r="H3336">
+        <v>553</v>
+      </c>
+      <c r="I3336">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:9">
+      <c r="A3337" s="1">
+        <v>3335</v>
+      </c>
+      <c r="B3337">
+        <v>296</v>
+      </c>
+      <c r="C3337" s="2">
+        <v>44848</v>
+      </c>
+      <c r="D3337">
+        <v>210</v>
+      </c>
+      <c r="E3337">
+        <v>485</v>
+      </c>
+      <c r="F3337">
+        <v>463</v>
+      </c>
+      <c r="G3337">
+        <v>256</v>
+      </c>
+      <c r="H3337">
+        <v>553</v>
+      </c>
+      <c r="I3337">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:9">
+      <c r="A3338" s="1">
+        <v>3336</v>
+      </c>
+      <c r="B3338">
+        <v>292</v>
+      </c>
+      <c r="C3338" s="2">
+        <v>44851</v>
+      </c>
+      <c r="D3338">
+        <v>206</v>
+      </c>
+      <c r="E3338">
+        <v>485</v>
+      </c>
+      <c r="F3338">
+        <v>454</v>
+      </c>
+      <c r="G3338">
+        <v>252</v>
+      </c>
+      <c r="H3338">
+        <v>546</v>
+      </c>
+      <c r="I3338">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:9">
+      <c r="A3339" s="1">
+        <v>3337</v>
+      </c>
+      <c r="B3339">
+        <v>287</v>
+      </c>
+      <c r="C3339" s="2">
+        <v>44852</v>
+      </c>
+      <c r="D3339">
+        <v>205</v>
+      </c>
+      <c r="E3339">
+        <v>483</v>
+      </c>
+      <c r="F3339">
+        <v>446</v>
+      </c>
+      <c r="G3339">
+        <v>249</v>
+      </c>
+      <c r="H3339">
+        <v>539</v>
+      </c>
+      <c r="I3339">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3339"/>
+  <dimension ref="A1:I3344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97149,6 +97149,151 @@
         <v>471</v>
       </c>
     </row>
+    <row r="3340" spans="1:9">
+      <c r="A3340" s="1">
+        <v>3338</v>
+      </c>
+      <c r="B3340">
+        <v>285</v>
+      </c>
+      <c r="C3340" s="2">
+        <v>44853</v>
+      </c>
+      <c r="D3340">
+        <v>206</v>
+      </c>
+      <c r="E3340">
+        <v>501</v>
+      </c>
+      <c r="F3340">
+        <v>449</v>
+      </c>
+      <c r="G3340">
+        <v>248</v>
+      </c>
+      <c r="H3340">
+        <v>543</v>
+      </c>
+      <c r="I3340">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:9">
+      <c r="A3341" s="1">
+        <v>3339</v>
+      </c>
+      <c r="B3341">
+        <v>274</v>
+      </c>
+      <c r="C3341" s="2">
+        <v>44854</v>
+      </c>
+      <c r="D3341">
+        <v>202</v>
+      </c>
+      <c r="E3341">
+        <v>522</v>
+      </c>
+      <c r="F3341">
+        <v>449</v>
+      </c>
+      <c r="G3341">
+        <v>250</v>
+      </c>
+      <c r="H3341">
+        <v>542</v>
+      </c>
+      <c r="I3341">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:9">
+      <c r="A3342" s="1">
+        <v>3340</v>
+      </c>
+      <c r="B3342">
+        <v>267</v>
+      </c>
+      <c r="C3342" s="2">
+        <v>44855</v>
+      </c>
+      <c r="D3342">
+        <v>203</v>
+      </c>
+      <c r="E3342">
+        <v>514</v>
+      </c>
+      <c r="F3342">
+        <v>448</v>
+      </c>
+      <c r="G3342">
+        <v>250</v>
+      </c>
+      <c r="H3342">
+        <v>539</v>
+      </c>
+      <c r="I3342">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:9">
+      <c r="A3343" s="1">
+        <v>3341</v>
+      </c>
+      <c r="B3343">
+        <v>259</v>
+      </c>
+      <c r="C3343" s="2">
+        <v>44858</v>
+      </c>
+      <c r="D3343">
+        <v>195</v>
+      </c>
+      <c r="E3343">
+        <v>502</v>
+      </c>
+      <c r="F3343">
+        <v>433</v>
+      </c>
+      <c r="G3343">
+        <v>238</v>
+      </c>
+      <c r="H3343">
+        <v>523</v>
+      </c>
+      <c r="I3343">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:9">
+      <c r="A3344" s="1">
+        <v>3342</v>
+      </c>
+      <c r="B3344">
+        <v>265</v>
+      </c>
+      <c r="C3344" s="2">
+        <v>44859</v>
+      </c>
+      <c r="D3344">
+        <v>197</v>
+      </c>
+      <c r="E3344">
+        <v>477</v>
+      </c>
+      <c r="F3344">
+        <v>426</v>
+      </c>
+      <c r="G3344">
+        <v>235</v>
+      </c>
+      <c r="H3344">
+        <v>514</v>
+      </c>
+      <c r="I3344">
+        <v>465</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3344"/>
+  <dimension ref="A1:I3350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97294,6 +97294,159 @@
         <v>465</v>
       </c>
     </row>
+    <row r="3345" spans="1:9">
+      <c r="A3345" s="1">
+        <v>3343</v>
+      </c>
+      <c r="C3345" s="2">
+        <v>44860</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:9">
+      <c r="A3346" s="1">
+        <v>3344</v>
+      </c>
+      <c r="B3346">
+        <v>283</v>
+      </c>
+      <c r="C3346" s="2">
+        <v>44861</v>
+      </c>
+      <c r="D3346">
+        <v>199</v>
+      </c>
+      <c r="E3346">
+        <v>445</v>
+      </c>
+      <c r="F3346">
+        <v>433</v>
+      </c>
+      <c r="G3346">
+        <v>235</v>
+      </c>
+      <c r="H3346">
+        <v>517</v>
+      </c>
+      <c r="I3346">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:9">
+      <c r="A3347" s="1">
+        <v>3345</v>
+      </c>
+      <c r="B3347">
+        <v>268</v>
+      </c>
+      <c r="C3347" s="2">
+        <v>44862</v>
+      </c>
+      <c r="D3347">
+        <v>189</v>
+      </c>
+      <c r="E3347">
+        <v>438</v>
+      </c>
+      <c r="F3347">
+        <v>421</v>
+      </c>
+      <c r="G3347">
+        <v>224</v>
+      </c>
+      <c r="H3347">
+        <v>503</v>
+      </c>
+      <c r="I3347">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:9">
+      <c r="A3348" s="1">
+        <v>3346</v>
+      </c>
+      <c r="B3348">
+        <v>269</v>
+      </c>
+      <c r="C3348" s="2">
+        <v>44865</v>
+      </c>
+      <c r="D3348">
+        <v>193</v>
+      </c>
+      <c r="E3348">
+        <v>456</v>
+      </c>
+      <c r="F3348">
+        <v>428</v>
+      </c>
+      <c r="G3348">
+        <v>228</v>
+      </c>
+      <c r="H3348">
+        <v>513</v>
+      </c>
+      <c r="I3348">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:9">
+      <c r="A3349" s="1">
+        <v>3347</v>
+      </c>
+      <c r="B3349">
+        <v>261</v>
+      </c>
+      <c r="C3349" s="2">
+        <v>44866</v>
+      </c>
+      <c r="D3349">
+        <v>186</v>
+      </c>
+      <c r="E3349">
+        <v>453</v>
+      </c>
+      <c r="F3349">
+        <v>420</v>
+      </c>
+      <c r="G3349">
+        <v>221</v>
+      </c>
+      <c r="H3349">
+        <v>501</v>
+      </c>
+      <c r="I3349">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:9">
+      <c r="A3350" s="1">
+        <v>3348</v>
+      </c>
+      <c r="B3350">
+        <v>261</v>
+      </c>
+      <c r="C3350" s="2">
+        <v>44867</v>
+      </c>
+      <c r="D3350">
+        <v>186</v>
+      </c>
+      <c r="E3350">
+        <v>463</v>
+      </c>
+      <c r="F3350">
+        <v>419</v>
+      </c>
+      <c r="G3350">
+        <v>221</v>
+      </c>
+      <c r="H3350">
+        <v>501</v>
+      </c>
+      <c r="I3350">
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3350"/>
+  <dimension ref="A1:I3355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97447,6 +97447,151 @@
         <v>442</v>
       </c>
     </row>
+    <row r="3351" spans="1:9">
+      <c r="A3351" s="1">
+        <v>3349</v>
+      </c>
+      <c r="B3351">
+        <v>262</v>
+      </c>
+      <c r="C3351" s="2">
+        <v>44868</v>
+      </c>
+      <c r="D3351">
+        <v>183</v>
+      </c>
+      <c r="E3351">
+        <v>464</v>
+      </c>
+      <c r="F3351">
+        <v>420</v>
+      </c>
+      <c r="G3351">
+        <v>221</v>
+      </c>
+      <c r="H3351">
+        <v>503</v>
+      </c>
+      <c r="I3351">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:9">
+      <c r="A3352" s="1">
+        <v>3350</v>
+      </c>
+      <c r="B3352">
+        <v>258</v>
+      </c>
+      <c r="C3352" s="2">
+        <v>44869</v>
+      </c>
+      <c r="D3352">
+        <v>177</v>
+      </c>
+      <c r="E3352">
+        <v>451</v>
+      </c>
+      <c r="F3352">
+        <v>411</v>
+      </c>
+      <c r="G3352">
+        <v>213</v>
+      </c>
+      <c r="H3352">
+        <v>494</v>
+      </c>
+      <c r="I3352">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:9">
+      <c r="A3353" s="1">
+        <v>3351</v>
+      </c>
+      <c r="B3353">
+        <v>249</v>
+      </c>
+      <c r="C3353" s="2">
+        <v>44872</v>
+      </c>
+      <c r="D3353">
+        <v>167</v>
+      </c>
+      <c r="E3353">
+        <v>431</v>
+      </c>
+      <c r="F3353">
+        <v>392</v>
+      </c>
+      <c r="G3353">
+        <v>201</v>
+      </c>
+      <c r="H3353">
+        <v>477</v>
+      </c>
+      <c r="I3353">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:9">
+      <c r="A3354" s="1">
+        <v>3352</v>
+      </c>
+      <c r="B3354">
+        <v>261</v>
+      </c>
+      <c r="C3354" s="2">
+        <v>44873</v>
+      </c>
+      <c r="D3354">
+        <v>168</v>
+      </c>
+      <c r="E3354">
+        <v>429</v>
+      </c>
+      <c r="F3354">
+        <v>399</v>
+      </c>
+      <c r="G3354">
+        <v>204</v>
+      </c>
+      <c r="H3354">
+        <v>479</v>
+      </c>
+      <c r="I3354">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:9">
+      <c r="A3355" s="1">
+        <v>3353</v>
+      </c>
+      <c r="B3355">
+        <v>274</v>
+      </c>
+      <c r="C3355" s="2">
+        <v>44874</v>
+      </c>
+      <c r="D3355">
+        <v>174</v>
+      </c>
+      <c r="E3355">
+        <v>439</v>
+      </c>
+      <c r="F3355">
+        <v>413</v>
+      </c>
+      <c r="G3355">
+        <v>211</v>
+      </c>
+      <c r="H3355">
+        <v>493</v>
+      </c>
+      <c r="I3355">
+        <v>430</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3355"/>
+  <dimension ref="A1:I3360"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97592,6 +97592,151 @@
         <v>430</v>
       </c>
     </row>
+    <row r="3356" spans="1:9">
+      <c r="A3356" s="1">
+        <v>3354</v>
+      </c>
+      <c r="B3356">
+        <v>283</v>
+      </c>
+      <c r="C3356" s="2">
+        <v>44875</v>
+      </c>
+      <c r="D3356">
+        <v>172</v>
+      </c>
+      <c r="E3356">
+        <v>420</v>
+      </c>
+      <c r="F3356">
+        <v>398</v>
+      </c>
+      <c r="G3356">
+        <v>205</v>
+      </c>
+      <c r="H3356">
+        <v>483</v>
+      </c>
+      <c r="I3356">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:9">
+      <c r="A3357" s="1">
+        <v>3355</v>
+      </c>
+      <c r="B3357">
+        <v>283</v>
+      </c>
+      <c r="C3357" s="2">
+        <v>44876</v>
+      </c>
+      <c r="D3357">
+        <v>172</v>
+      </c>
+      <c r="E3357">
+        <v>420</v>
+      </c>
+      <c r="F3357">
+        <v>398</v>
+      </c>
+      <c r="G3357">
+        <v>205</v>
+      </c>
+      <c r="H3357">
+        <v>483</v>
+      </c>
+      <c r="I3357">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:9">
+      <c r="A3358" s="1">
+        <v>3356</v>
+      </c>
+      <c r="B3358">
+        <v>273</v>
+      </c>
+      <c r="C3358" s="2">
+        <v>44879</v>
+      </c>
+      <c r="D3358">
+        <v>161</v>
+      </c>
+      <c r="E3358">
+        <v>398</v>
+      </c>
+      <c r="F3358">
+        <v>389</v>
+      </c>
+      <c r="G3358">
+        <v>196</v>
+      </c>
+      <c r="H3358">
+        <v>470</v>
+      </c>
+      <c r="I3358">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:9">
+      <c r="A3359" s="1">
+        <v>3357</v>
+      </c>
+      <c r="B3359">
+        <v>263</v>
+      </c>
+      <c r="C3359" s="2">
+        <v>44880</v>
+      </c>
+      <c r="D3359">
+        <v>160</v>
+      </c>
+      <c r="E3359">
+        <v>391</v>
+      </c>
+      <c r="F3359">
+        <v>386</v>
+      </c>
+      <c r="G3359">
+        <v>195</v>
+      </c>
+      <c r="H3359">
+        <v>465</v>
+      </c>
+      <c r="I3359">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:9">
+      <c r="A3360" s="1">
+        <v>3358</v>
+      </c>
+      <c r="B3360">
+        <v>267</v>
+      </c>
+      <c r="C3360" s="2">
+        <v>44881</v>
+      </c>
+      <c r="D3360">
+        <v>164</v>
+      </c>
+      <c r="E3360">
+        <v>394</v>
+      </c>
+      <c r="F3360">
+        <v>391</v>
+      </c>
+      <c r="G3360">
+        <v>201</v>
+      </c>
+      <c r="H3360">
+        <v>467</v>
+      </c>
+      <c r="I3360">
+        <v>405</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3360"/>
+  <dimension ref="A1:I3365"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97737,6 +97737,151 @@
         <v>405</v>
       </c>
     </row>
+    <row r="3361" spans="1:9">
+      <c r="A3361" s="1">
+        <v>3359</v>
+      </c>
+      <c r="B3361">
+        <v>274</v>
+      </c>
+      <c r="C3361" s="2">
+        <v>44882</v>
+      </c>
+      <c r="D3361">
+        <v>164</v>
+      </c>
+      <c r="E3361">
+        <v>403</v>
+      </c>
+      <c r="F3361">
+        <v>393</v>
+      </c>
+      <c r="G3361">
+        <v>202</v>
+      </c>
+      <c r="H3361">
+        <v>471</v>
+      </c>
+      <c r="I3361">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:9">
+      <c r="A3362" s="1">
+        <v>3360</v>
+      </c>
+      <c r="B3362">
+        <v>268</v>
+      </c>
+      <c r="C3362" s="2">
+        <v>44883</v>
+      </c>
+      <c r="D3362">
+        <v>162</v>
+      </c>
+      <c r="E3362">
+        <v>403</v>
+      </c>
+      <c r="F3362">
+        <v>389</v>
+      </c>
+      <c r="G3362">
+        <v>200</v>
+      </c>
+      <c r="H3362">
+        <v>469</v>
+      </c>
+      <c r="I3362">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:9">
+      <c r="A3363" s="1">
+        <v>3361</v>
+      </c>
+      <c r="B3363">
+        <v>264</v>
+      </c>
+      <c r="C3363" s="2">
+        <v>44886</v>
+      </c>
+      <c r="D3363">
+        <v>160</v>
+      </c>
+      <c r="E3363">
+        <v>398</v>
+      </c>
+      <c r="F3363">
+        <v>389</v>
+      </c>
+      <c r="G3363">
+        <v>197</v>
+      </c>
+      <c r="H3363">
+        <v>466</v>
+      </c>
+      <c r="I3363">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:9">
+      <c r="A3364" s="1">
+        <v>3362</v>
+      </c>
+      <c r="B3364">
+        <v>262</v>
+      </c>
+      <c r="C3364" s="2">
+        <v>44887</v>
+      </c>
+      <c r="D3364">
+        <v>163</v>
+      </c>
+      <c r="E3364">
+        <v>396</v>
+      </c>
+      <c r="F3364">
+        <v>394</v>
+      </c>
+      <c r="G3364">
+        <v>197</v>
+      </c>
+      <c r="H3364">
+        <v>466</v>
+      </c>
+      <c r="I3364">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:9">
+      <c r="A3365" s="1">
+        <v>3363</v>
+      </c>
+      <c r="B3365">
+        <v>267</v>
+      </c>
+      <c r="C3365" s="2">
+        <v>44888</v>
+      </c>
+      <c r="D3365">
+        <v>167</v>
+      </c>
+      <c r="E3365">
+        <v>401</v>
+      </c>
+      <c r="F3365">
+        <v>400</v>
+      </c>
+      <c r="G3365">
+        <v>201</v>
+      </c>
+      <c r="H3365">
+        <v>469</v>
+      </c>
+      <c r="I3365">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3365"/>
+  <dimension ref="A1:I3371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -97882,6 +97882,180 @@
         <v>407</v>
       </c>
     </row>
+    <row r="3366" spans="1:9">
+      <c r="A3366" s="1">
+        <v>3364</v>
+      </c>
+      <c r="B3366">
+        <v>267</v>
+      </c>
+      <c r="C3366" s="2">
+        <v>44889</v>
+      </c>
+      <c r="D3366">
+        <v>167</v>
+      </c>
+      <c r="E3366">
+        <v>401</v>
+      </c>
+      <c r="F3366">
+        <v>400</v>
+      </c>
+      <c r="G3366">
+        <v>201</v>
+      </c>
+      <c r="H3366">
+        <v>469</v>
+      </c>
+      <c r="I3366">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:9">
+      <c r="A3367" s="1">
+        <v>3365</v>
+      </c>
+      <c r="B3367">
+        <v>268</v>
+      </c>
+      <c r="C3367" s="2">
+        <v>44890</v>
+      </c>
+      <c r="D3367">
+        <v>168</v>
+      </c>
+      <c r="E3367">
+        <v>402</v>
+      </c>
+      <c r="F3367">
+        <v>401</v>
+      </c>
+      <c r="G3367">
+        <v>202</v>
+      </c>
+      <c r="H3367">
+        <v>470</v>
+      </c>
+      <c r="I3367">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:9">
+      <c r="A3368" s="1">
+        <v>3366</v>
+      </c>
+      <c r="B3368">
+        <v>262</v>
+      </c>
+      <c r="C3368" s="2">
+        <v>44893</v>
+      </c>
+      <c r="D3368">
+        <v>163</v>
+      </c>
+      <c r="E3368">
+        <v>404</v>
+      </c>
+      <c r="F3368">
+        <v>402</v>
+      </c>
+      <c r="G3368">
+        <v>198</v>
+      </c>
+      <c r="H3368">
+        <v>467</v>
+      </c>
+      <c r="I3368">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:9">
+      <c r="A3369" s="1">
+        <v>3367</v>
+      </c>
+      <c r="B3369">
+        <v>250</v>
+      </c>
+      <c r="C3369" s="2">
+        <v>44894</v>
+      </c>
+      <c r="D3369">
+        <v>154</v>
+      </c>
+      <c r="E3369">
+        <v>403</v>
+      </c>
+      <c r="F3369">
+        <v>392</v>
+      </c>
+      <c r="G3369">
+        <v>190</v>
+      </c>
+      <c r="H3369">
+        <v>457</v>
+      </c>
+      <c r="I3369">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:9">
+      <c r="A3370" s="1">
+        <v>3368</v>
+      </c>
+      <c r="B3370">
+        <v>249</v>
+      </c>
+      <c r="C3370" s="2">
+        <v>44895</v>
+      </c>
+      <c r="D3370">
+        <v>157</v>
+      </c>
+      <c r="E3370">
+        <v>404</v>
+      </c>
+      <c r="F3370">
+        <v>392</v>
+      </c>
+      <c r="G3370">
+        <v>193</v>
+      </c>
+      <c r="H3370">
+        <v>454</v>
+      </c>
+      <c r="I3370">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:9">
+      <c r="A3371" s="1">
+        <v>3369</v>
+      </c>
+      <c r="B3371">
+        <v>249</v>
+      </c>
+      <c r="C3371" s="2">
+        <v>44896</v>
+      </c>
+      <c r="D3371">
+        <v>157</v>
+      </c>
+      <c r="E3371">
+        <v>404</v>
+      </c>
+      <c r="F3371">
+        <v>392</v>
+      </c>
+      <c r="G3371">
+        <v>193</v>
+      </c>
+      <c r="H3371">
+        <v>454</v>
+      </c>
+      <c r="I3371">
+        <v>392</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3371"/>
+  <dimension ref="A1:I3374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -98032,27 +98032,114 @@
         <v>3369</v>
       </c>
       <c r="B3371">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C3371" s="2">
         <v>44896</v>
       </c>
       <c r="D3371">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E3371">
+        <v>393</v>
+      </c>
+      <c r="F3371">
+        <v>381</v>
+      </c>
+      <c r="G3371">
+        <v>196</v>
+      </c>
+      <c r="H3371">
+        <v>447</v>
+      </c>
+      <c r="I3371">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:9">
+      <c r="A3372" s="1">
+        <v>3370</v>
+      </c>
+      <c r="B3372">
+        <v>247</v>
+      </c>
+      <c r="C3372" s="2">
+        <v>44897</v>
+      </c>
+      <c r="D3372">
+        <v>156</v>
+      </c>
+      <c r="E3372">
+        <v>383</v>
+      </c>
+      <c r="F3372">
+        <v>384</v>
+      </c>
+      <c r="G3372">
+        <v>196</v>
+      </c>
+      <c r="H3372">
+        <v>447</v>
+      </c>
+      <c r="I3372">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:9">
+      <c r="A3373" s="1">
+        <v>3371</v>
+      </c>
+      <c r="B3373">
+        <v>243</v>
+      </c>
+      <c r="C3373" s="2">
+        <v>44900</v>
+      </c>
+      <c r="D3373">
+        <v>152</v>
+      </c>
+      <c r="E3373">
+        <v>383</v>
+      </c>
+      <c r="F3373">
+        <v>388</v>
+      </c>
+      <c r="G3373">
+        <v>191</v>
+      </c>
+      <c r="H3373">
+        <v>447</v>
+      </c>
+      <c r="I3373">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:9">
+      <c r="A3374" s="1">
+        <v>3372</v>
+      </c>
+      <c r="B3374">
+        <v>254</v>
+      </c>
+      <c r="C3374" s="2">
+        <v>44901</v>
+      </c>
+      <c r="D3374">
+        <v>158</v>
+      </c>
+      <c r="E3374">
+        <v>398</v>
+      </c>
+      <c r="F3374">
         <v>404</v>
       </c>
-      <c r="F3371">
-        <v>392</v>
-      </c>
-      <c r="G3371">
-        <v>193</v>
-      </c>
-      <c r="H3371">
-        <v>454</v>
-      </c>
-      <c r="I3371">
+      <c r="G3374">
+        <v>199</v>
+      </c>
+      <c r="H3374">
+        <v>461</v>
+      </c>
+      <c r="I3374">
         <v>392</v>
       </c>
     </row>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3374"/>
+  <dimension ref="A1:I3380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -98143,6 +98143,180 @@
         <v>392</v>
       </c>
     </row>
+    <row r="3375" spans="1:9">
+      <c r="A3375" s="1">
+        <v>3373</v>
+      </c>
+      <c r="B3375">
+        <v>260</v>
+      </c>
+      <c r="C3375" s="2">
+        <v>44902</v>
+      </c>
+      <c r="D3375">
+        <v>162</v>
+      </c>
+      <c r="E3375">
+        <v>402</v>
+      </c>
+      <c r="F3375">
+        <v>403</v>
+      </c>
+      <c r="G3375">
+        <v>201</v>
+      </c>
+      <c r="H3375">
+        <v>462</v>
+      </c>
+      <c r="I3375">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:9">
+      <c r="A3376" s="1">
+        <v>3374</v>
+      </c>
+      <c r="B3376">
+        <v>251</v>
+      </c>
+      <c r="C3376" s="2">
+        <v>44903</v>
+      </c>
+      <c r="D3376">
+        <v>153</v>
+      </c>
+      <c r="E3376">
+        <v>390</v>
+      </c>
+      <c r="F3376">
+        <v>392</v>
+      </c>
+      <c r="G3376">
+        <v>189</v>
+      </c>
+      <c r="H3376">
+        <v>451</v>
+      </c>
+      <c r="I3376">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:9">
+      <c r="A3377" s="1">
+        <v>3375</v>
+      </c>
+      <c r="B3377">
+        <v>243</v>
+      </c>
+      <c r="C3377" s="2">
+        <v>44904</v>
+      </c>
+      <c r="D3377">
+        <v>145</v>
+      </c>
+      <c r="E3377">
+        <v>378</v>
+      </c>
+      <c r="F3377">
+        <v>382</v>
+      </c>
+      <c r="G3377">
+        <v>180</v>
+      </c>
+      <c r="H3377">
+        <v>442</v>
+      </c>
+      <c r="I3377">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:9">
+      <c r="A3378" s="1">
+        <v>3376</v>
+      </c>
+      <c r="B3378">
+        <v>251</v>
+      </c>
+      <c r="C3378" s="2">
+        <v>44907</v>
+      </c>
+      <c r="D3378">
+        <v>147</v>
+      </c>
+      <c r="E3378">
+        <v>379</v>
+      </c>
+      <c r="F3378">
+        <v>386</v>
+      </c>
+      <c r="G3378">
+        <v>185</v>
+      </c>
+      <c r="H3378">
+        <v>444</v>
+      </c>
+      <c r="I3378">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:9">
+      <c r="A3379" s="1">
+        <v>3377</v>
+      </c>
+      <c r="B3379">
+        <v>250</v>
+      </c>
+      <c r="C3379" s="2">
+        <v>44908</v>
+      </c>
+      <c r="D3379">
+        <v>146</v>
+      </c>
+      <c r="E3379">
+        <v>372</v>
+      </c>
+      <c r="F3379">
+        <v>381</v>
+      </c>
+      <c r="G3379">
+        <v>185</v>
+      </c>
+      <c r="H3379">
+        <v>439</v>
+      </c>
+      <c r="I3379">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:9">
+      <c r="A3380" s="1">
+        <v>3378</v>
+      </c>
+      <c r="B3380">
+        <v>258</v>
+      </c>
+      <c r="C3380" s="2">
+        <v>44909</v>
+      </c>
+      <c r="D3380">
+        <v>149</v>
+      </c>
+      <c r="E3380">
+        <v>380</v>
+      </c>
+      <c r="F3380">
+        <v>384</v>
+      </c>
+      <c r="G3380">
+        <v>197</v>
+      </c>
+      <c r="H3380">
+        <v>444</v>
+      </c>
+      <c r="I3380">
+        <v>381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3380"/>
+  <dimension ref="A1:I3385"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -98317,6 +98317,151 @@
         <v>381</v>
       </c>
     </row>
+    <row r="3381" spans="1:9">
+      <c r="A3381" s="1">
+        <v>3379</v>
+      </c>
+      <c r="B3381">
+        <v>265</v>
+      </c>
+      <c r="C3381" s="2">
+        <v>44910</v>
+      </c>
+      <c r="D3381">
+        <v>151</v>
+      </c>
+      <c r="E3381">
+        <v>384</v>
+      </c>
+      <c r="F3381">
+        <v>389</v>
+      </c>
+      <c r="G3381">
+        <v>203</v>
+      </c>
+      <c r="H3381">
+        <v>446</v>
+      </c>
+      <c r="I3381">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:9">
+      <c r="A3382" s="1">
+        <v>3380</v>
+      </c>
+      <c r="B3382">
+        <v>272</v>
+      </c>
+      <c r="C3382" s="2">
+        <v>44911</v>
+      </c>
+      <c r="D3382">
+        <v>151</v>
+      </c>
+      <c r="E3382">
+        <v>391</v>
+      </c>
+      <c r="F3382">
+        <v>396</v>
+      </c>
+      <c r="G3382">
+        <v>208</v>
+      </c>
+      <c r="H3382">
+        <v>451</v>
+      </c>
+      <c r="I3382">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:9">
+      <c r="A3383" s="1">
+        <v>3381</v>
+      </c>
+      <c r="B3383">
+        <v>275</v>
+      </c>
+      <c r="C3383" s="2">
+        <v>44914</v>
+      </c>
+      <c r="D3383">
+        <v>149</v>
+      </c>
+      <c r="E3383">
+        <v>395</v>
+      </c>
+      <c r="F3383">
+        <v>398</v>
+      </c>
+      <c r="G3383">
+        <v>208</v>
+      </c>
+      <c r="H3383">
+        <v>452</v>
+      </c>
+      <c r="I3383">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:9">
+      <c r="A3384" s="1">
+        <v>3382</v>
+      </c>
+      <c r="B3384">
+        <v>274</v>
+      </c>
+      <c r="C3384" s="2">
+        <v>44915</v>
+      </c>
+      <c r="D3384">
+        <v>149</v>
+      </c>
+      <c r="E3384">
+        <v>396</v>
+      </c>
+      <c r="F3384">
+        <v>398</v>
+      </c>
+      <c r="G3384">
+        <v>209</v>
+      </c>
+      <c r="H3384">
+        <v>451</v>
+      </c>
+      <c r="I3384">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:9">
+      <c r="A3385" s="1">
+        <v>3383</v>
+      </c>
+      <c r="B3385">
+        <v>268</v>
+      </c>
+      <c r="C3385" s="2">
+        <v>44916</v>
+      </c>
+      <c r="D3385">
+        <v>145</v>
+      </c>
+      <c r="E3385">
+        <v>379</v>
+      </c>
+      <c r="F3385">
+        <v>389</v>
+      </c>
+      <c r="G3385">
+        <v>200</v>
+      </c>
+      <c r="H3385">
+        <v>441</v>
+      </c>
+      <c r="I3385">
+        <v>383</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3385"/>
+  <dimension ref="A1:I3459"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -45820,8 +45820,29 @@
       <c r="A1567" s="1">
         <v>1565</v>
       </c>
+      <c r="B1567">
+        <v>548</v>
+      </c>
       <c r="C1567" s="2">
         <v>42370</v>
+      </c>
+      <c r="D1567">
+        <v>253</v>
+      </c>
+      <c r="E1567">
+        <v>317</v>
+      </c>
+      <c r="F1567">
+        <v>315</v>
+      </c>
+      <c r="G1567">
+        <v>240</v>
+      </c>
+      <c r="H1567">
+        <v>605</v>
+      </c>
+      <c r="I1567">
+        <v>446</v>
       </c>
     </row>
     <row r="1568" spans="1:9">
@@ -78105,8 +78126,29 @@
       <c r="A2681" s="1">
         <v>2679</v>
       </c>
+      <c r="B2681">
+        <v>392</v>
+      </c>
       <c r="C2681" s="2">
         <v>43930</v>
+      </c>
+      <c r="D2681">
+        <v>307</v>
+      </c>
+      <c r="E2681">
+        <v>355</v>
+      </c>
+      <c r="F2681">
+        <v>619</v>
+      </c>
+      <c r="G2681">
+        <v>274</v>
+      </c>
+      <c r="H2681">
+        <v>699</v>
+      </c>
+      <c r="I2681">
+        <v>562</v>
       </c>
     </row>
     <row r="2682" spans="1:9">
@@ -78548,8 +78590,29 @@
       <c r="A2697" s="1">
         <v>2695</v>
       </c>
+      <c r="B2697">
+        <v>419</v>
+      </c>
       <c r="C2697" s="2">
         <v>43952</v>
+      </c>
+      <c r="D2697">
+        <v>282</v>
+      </c>
+      <c r="E2697">
+        <v>387</v>
+      </c>
+      <c r="F2697">
+        <v>659</v>
+      </c>
+      <c r="G2697">
+        <v>252</v>
+      </c>
+      <c r="H2697">
+        <v>699</v>
+      </c>
+      <c r="I2697">
+        <v>556</v>
       </c>
     </row>
     <row r="2698" spans="1:9">
@@ -96913,8 +96976,29 @@
       <c r="A3331" s="1">
         <v>3329</v>
       </c>
+      <c r="B3331">
+        <v>281</v>
+      </c>
       <c r="C3331" s="2">
         <v>44840</v>
+      </c>
+      <c r="D3331">
+        <v>196</v>
+      </c>
+      <c r="E3331">
+        <v>441</v>
+      </c>
+      <c r="F3331">
+        <v>450</v>
+      </c>
+      <c r="G3331">
+        <v>233</v>
+      </c>
+      <c r="H3331">
+        <v>525</v>
+      </c>
+      <c r="I3331">
+        <v>453</v>
       </c>
     </row>
     <row r="3332" spans="1:9">
@@ -97298,8 +97382,29 @@
       <c r="A3345" s="1">
         <v>3343</v>
       </c>
+      <c r="B3345">
+        <v>271</v>
+      </c>
       <c r="C3345" s="2">
         <v>44860</v>
+      </c>
+      <c r="D3345">
+        <v>192</v>
+      </c>
+      <c r="E3345">
+        <v>471</v>
+      </c>
+      <c r="F3345">
+        <v>427</v>
+      </c>
+      <c r="G3345">
+        <v>232</v>
+      </c>
+      <c r="H3345">
+        <v>513</v>
+      </c>
+      <c r="I3345">
+        <v>4574708</v>
       </c>
     </row>
     <row r="3346" spans="1:9">
@@ -98460,6 +98565,2152 @@
       </c>
       <c r="I3385">
         <v>383</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:9">
+      <c r="A3386" s="1">
+        <v>3384</v>
+      </c>
+      <c r="B3386">
+        <v>265</v>
+      </c>
+      <c r="C3386" s="2">
+        <v>44917</v>
+      </c>
+      <c r="D3386">
+        <v>145</v>
+      </c>
+      <c r="E3386">
+        <v>376</v>
+      </c>
+      <c r="F3386">
+        <v>388</v>
+      </c>
+      <c r="G3386">
+        <v>198</v>
+      </c>
+      <c r="H3386">
+        <v>440</v>
+      </c>
+      <c r="I3386">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:9">
+      <c r="A3387" s="1">
+        <v>3385</v>
+      </c>
+      <c r="B3387">
+        <v>265</v>
+      </c>
+      <c r="C3387" s="2">
+        <v>44918</v>
+      </c>
+      <c r="D3387">
+        <v>140</v>
+      </c>
+      <c r="E3387">
+        <v>372</v>
+      </c>
+      <c r="F3387">
+        <v>386</v>
+      </c>
+      <c r="G3387">
+        <v>193</v>
+      </c>
+      <c r="H3387">
+        <v>441</v>
+      </c>
+      <c r="I3387">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:9">
+      <c r="A3388" s="1">
+        <v>3386</v>
+      </c>
+      <c r="B3388">
+        <v>265</v>
+      </c>
+      <c r="C3388" s="2">
+        <v>44921</v>
+      </c>
+      <c r="D3388">
+        <v>140</v>
+      </c>
+      <c r="E3388">
+        <v>372</v>
+      </c>
+      <c r="F3388">
+        <v>386</v>
+      </c>
+      <c r="G3388">
+        <v>193</v>
+      </c>
+      <c r="H3388">
+        <v>441</v>
+      </c>
+      <c r="I3388">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:9">
+      <c r="A3389" s="1">
+        <v>3387</v>
+      </c>
+      <c r="B3389">
+        <v>259</v>
+      </c>
+      <c r="C3389" s="2">
+        <v>44922</v>
+      </c>
+      <c r="D3389">
+        <v>136</v>
+      </c>
+      <c r="E3389">
+        <v>370</v>
+      </c>
+      <c r="F3389">
+        <v>383</v>
+      </c>
+      <c r="G3389">
+        <v>191</v>
+      </c>
+      <c r="H3389">
+        <v>437</v>
+      </c>
+      <c r="I3389">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:9">
+      <c r="A3390" s="1">
+        <v>3388</v>
+      </c>
+      <c r="B3390">
+        <v>256</v>
+      </c>
+      <c r="C3390" s="2">
+        <v>44923</v>
+      </c>
+      <c r="D3390">
+        <v>137</v>
+      </c>
+      <c r="E3390">
+        <v>367</v>
+      </c>
+      <c r="F3390">
+        <v>385</v>
+      </c>
+      <c r="G3390">
+        <v>190</v>
+      </c>
+      <c r="H3390">
+        <v>436</v>
+      </c>
+      <c r="I3390">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:9">
+      <c r="A3391" s="1">
+        <v>3389</v>
+      </c>
+      <c r="B3391">
+        <v>261</v>
+      </c>
+      <c r="C3391" s="2">
+        <v>44924</v>
+      </c>
+      <c r="D3391">
+        <v>143</v>
+      </c>
+      <c r="E3391">
+        <v>370</v>
+      </c>
+      <c r="F3391">
+        <v>389</v>
+      </c>
+      <c r="G3391">
+        <v>195</v>
+      </c>
+      <c r="H3391">
+        <v>442</v>
+      </c>
+      <c r="I3391">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:9">
+      <c r="A3392" s="1">
+        <v>3390</v>
+      </c>
+      <c r="B3392">
+        <v>258</v>
+      </c>
+      <c r="C3392" s="2">
+        <v>44925</v>
+      </c>
+      <c r="D3392">
+        <v>140</v>
+      </c>
+      <c r="E3392">
+        <v>369</v>
+      </c>
+      <c r="F3392">
+        <v>386</v>
+      </c>
+      <c r="G3392">
+        <v>194</v>
+      </c>
+      <c r="H3392">
+        <v>440</v>
+      </c>
+      <c r="I3392">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:9">
+      <c r="A3393" s="1">
+        <v>3391</v>
+      </c>
+      <c r="B3393">
+        <v>258</v>
+      </c>
+      <c r="C3393" s="2">
+        <v>44928</v>
+      </c>
+      <c r="D3393">
+        <v>140</v>
+      </c>
+      <c r="E3393">
+        <v>369</v>
+      </c>
+      <c r="F3393">
+        <v>386</v>
+      </c>
+      <c r="G3393">
+        <v>194</v>
+      </c>
+      <c r="H3393">
+        <v>440</v>
+      </c>
+      <c r="I3393">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:9">
+      <c r="A3394" s="1">
+        <v>3392</v>
+      </c>
+      <c r="B3394">
+        <v>259</v>
+      </c>
+      <c r="C3394" s="2">
+        <v>44929</v>
+      </c>
+      <c r="D3394">
+        <v>147</v>
+      </c>
+      <c r="E3394">
+        <v>368</v>
+      </c>
+      <c r="F3394">
+        <v>390</v>
+      </c>
+      <c r="G3394">
+        <v>200</v>
+      </c>
+      <c r="H3394">
+        <v>443</v>
+      </c>
+      <c r="I3394">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:9">
+      <c r="A3395" s="1">
+        <v>3393</v>
+      </c>
+      <c r="B3395">
+        <v>263</v>
+      </c>
+      <c r="C3395" s="2">
+        <v>44930</v>
+      </c>
+      <c r="D3395">
+        <v>154</v>
+      </c>
+      <c r="E3395">
+        <v>366</v>
+      </c>
+      <c r="F3395">
+        <v>391</v>
+      </c>
+      <c r="G3395">
+        <v>208</v>
+      </c>
+      <c r="H3395">
+        <v>443</v>
+      </c>
+      <c r="I3395">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:9">
+      <c r="A3396" s="1">
+        <v>3394</v>
+      </c>
+      <c r="B3396">
+        <v>264</v>
+      </c>
+      <c r="C3396" s="2">
+        <v>44931</v>
+      </c>
+      <c r="D3396">
+        <v>162</v>
+      </c>
+      <c r="E3396">
+        <v>376</v>
+      </c>
+      <c r="F3396">
+        <v>398</v>
+      </c>
+      <c r="G3396">
+        <v>217</v>
+      </c>
+      <c r="H3396">
+        <v>451</v>
+      </c>
+      <c r="I3396">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:9">
+      <c r="A3397" s="1">
+        <v>3395</v>
+      </c>
+      <c r="B3397">
+        <v>265</v>
+      </c>
+      <c r="C3397" s="2">
+        <v>44932</v>
+      </c>
+      <c r="D3397">
+        <v>165</v>
+      </c>
+      <c r="E3397">
+        <v>382</v>
+      </c>
+      <c r="F3397">
+        <v>392</v>
+      </c>
+      <c r="G3397">
+        <v>215</v>
+      </c>
+      <c r="H3397">
+        <v>448</v>
+      </c>
+      <c r="I3397">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:9">
+      <c r="A3398" s="1">
+        <v>3396</v>
+      </c>
+      <c r="B3398">
+        <v>267</v>
+      </c>
+      <c r="C3398" s="2">
+        <v>44935</v>
+      </c>
+      <c r="D3398">
+        <v>164</v>
+      </c>
+      <c r="E3398">
+        <v>382</v>
+      </c>
+      <c r="F3398">
+        <v>388</v>
+      </c>
+      <c r="G3398">
+        <v>215</v>
+      </c>
+      <c r="H3398">
+        <v>446</v>
+      </c>
+      <c r="I3398">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:9">
+      <c r="A3399" s="1">
+        <v>3397</v>
+      </c>
+      <c r="B3399">
+        <v>262</v>
+      </c>
+      <c r="C3399" s="2">
+        <v>44936</v>
+      </c>
+      <c r="D3399">
+        <v>161</v>
+      </c>
+      <c r="E3399">
+        <v>385</v>
+      </c>
+      <c r="F3399">
+        <v>387</v>
+      </c>
+      <c r="G3399">
+        <v>214</v>
+      </c>
+      <c r="H3399">
+        <v>446</v>
+      </c>
+      <c r="I3399">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:9">
+      <c r="A3400" s="1">
+        <v>3398</v>
+      </c>
+      <c r="B3400">
+        <v>262</v>
+      </c>
+      <c r="C3400" s="2">
+        <v>44937</v>
+      </c>
+      <c r="D3400">
+        <v>161</v>
+      </c>
+      <c r="E3400">
+        <v>380</v>
+      </c>
+      <c r="F3400">
+        <v>383</v>
+      </c>
+      <c r="G3400">
+        <v>213</v>
+      </c>
+      <c r="H3400">
+        <v>439</v>
+      </c>
+      <c r="I3400">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:9">
+      <c r="A3401" s="1">
+        <v>3399</v>
+      </c>
+      <c r="B3401">
+        <v>262</v>
+      </c>
+      <c r="C3401" s="2">
+        <v>44938</v>
+      </c>
+      <c r="D3401">
+        <v>160</v>
+      </c>
+      <c r="E3401">
+        <v>377</v>
+      </c>
+      <c r="F3401">
+        <v>373</v>
+      </c>
+      <c r="G3401">
+        <v>205</v>
+      </c>
+      <c r="H3401">
+        <v>433</v>
+      </c>
+      <c r="I3401">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:9">
+      <c r="A3402" s="1">
+        <v>3400</v>
+      </c>
+      <c r="B3402">
+        <v>256</v>
+      </c>
+      <c r="C3402" s="2">
+        <v>44939</v>
+      </c>
+      <c r="D3402">
+        <v>153</v>
+      </c>
+      <c r="E3402">
+        <v>370</v>
+      </c>
+      <c r="F3402">
+        <v>368</v>
+      </c>
+      <c r="G3402">
+        <v>202</v>
+      </c>
+      <c r="H3402">
+        <v>427</v>
+      </c>
+      <c r="I3402">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:9">
+      <c r="A3403" s="1">
+        <v>3401</v>
+      </c>
+      <c r="B3403">
+        <v>256</v>
+      </c>
+      <c r="C3403" s="2">
+        <v>44942</v>
+      </c>
+      <c r="D3403">
+        <v>153</v>
+      </c>
+      <c r="E3403">
+        <v>370</v>
+      </c>
+      <c r="F3403">
+        <v>368</v>
+      </c>
+      <c r="G3403">
+        <v>202</v>
+      </c>
+      <c r="H3403">
+        <v>427</v>
+      </c>
+      <c r="I3403">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:9">
+      <c r="A3404" s="1">
+        <v>3402</v>
+      </c>
+      <c r="B3404">
+        <v>255</v>
+      </c>
+      <c r="C3404" s="2">
+        <v>44943</v>
+      </c>
+      <c r="D3404">
+        <v>151</v>
+      </c>
+      <c r="E3404">
+        <v>368</v>
+      </c>
+      <c r="F3404">
+        <v>366</v>
+      </c>
+      <c r="G3404">
+        <v>206</v>
+      </c>
+      <c r="H3404">
+        <v>421</v>
+      </c>
+      <c r="I3404">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:9">
+      <c r="A3405" s="1">
+        <v>3403</v>
+      </c>
+      <c r="B3405">
+        <v>257</v>
+      </c>
+      <c r="C3405" s="2">
+        <v>44944</v>
+      </c>
+      <c r="D3405">
+        <v>149</v>
+      </c>
+      <c r="E3405">
+        <v>366</v>
+      </c>
+      <c r="F3405">
+        <v>363</v>
+      </c>
+      <c r="G3405">
+        <v>207</v>
+      </c>
+      <c r="H3405">
+        <v>418</v>
+      </c>
+      <c r="I3405">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:9">
+      <c r="A3406" s="1">
+        <v>3404</v>
+      </c>
+      <c r="B3406">
+        <v>257</v>
+      </c>
+      <c r="C3406" s="2">
+        <v>44945</v>
+      </c>
+      <c r="D3406">
+        <v>148</v>
+      </c>
+      <c r="E3406">
+        <v>366</v>
+      </c>
+      <c r="F3406">
+        <v>363</v>
+      </c>
+      <c r="G3406">
+        <v>211</v>
+      </c>
+      <c r="H3406">
+        <v>421</v>
+      </c>
+      <c r="I3406">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:9">
+      <c r="A3407" s="1">
+        <v>3405</v>
+      </c>
+      <c r="B3407">
+        <v>253</v>
+      </c>
+      <c r="C3407" s="2">
+        <v>44946</v>
+      </c>
+      <c r="D3407">
+        <v>145</v>
+      </c>
+      <c r="E3407">
+        <v>361</v>
+      </c>
+      <c r="F3407">
+        <v>358</v>
+      </c>
+      <c r="G3407">
+        <v>208</v>
+      </c>
+      <c r="H3407">
+        <v>416</v>
+      </c>
+      <c r="I3407">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:9">
+      <c r="A3408" s="1">
+        <v>3406</v>
+      </c>
+      <c r="B3408">
+        <v>250</v>
+      </c>
+      <c r="C3408" s="2">
+        <v>44949</v>
+      </c>
+      <c r="D3408">
+        <v>143</v>
+      </c>
+      <c r="E3408">
+        <v>358</v>
+      </c>
+      <c r="F3408">
+        <v>354</v>
+      </c>
+      <c r="G3408">
+        <v>207</v>
+      </c>
+      <c r="H3408">
+        <v>413</v>
+      </c>
+      <c r="I3408">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:9">
+      <c r="A3409" s="1">
+        <v>3407</v>
+      </c>
+      <c r="B3409">
+        <v>255</v>
+      </c>
+      <c r="C3409" s="2">
+        <v>44950</v>
+      </c>
+      <c r="D3409">
+        <v>146</v>
+      </c>
+      <c r="E3409">
+        <v>362</v>
+      </c>
+      <c r="F3409">
+        <v>361</v>
+      </c>
+      <c r="G3409">
+        <v>210</v>
+      </c>
+      <c r="H3409">
+        <v>417</v>
+      </c>
+      <c r="I3409">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:9">
+      <c r="A3410" s="1">
+        <v>3408</v>
+      </c>
+      <c r="B3410">
+        <v>262</v>
+      </c>
+      <c r="C3410" s="2">
+        <v>44951</v>
+      </c>
+      <c r="D3410">
+        <v>146</v>
+      </c>
+      <c r="E3410">
+        <v>362</v>
+      </c>
+      <c r="F3410">
+        <v>366</v>
+      </c>
+      <c r="G3410">
+        <v>210</v>
+      </c>
+      <c r="H3410">
+        <v>420</v>
+      </c>
+      <c r="I3410">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:9">
+      <c r="A3411" s="1">
+        <v>3409</v>
+      </c>
+      <c r="B3411">
+        <v>256</v>
+      </c>
+      <c r="C3411" s="2">
+        <v>44952</v>
+      </c>
+      <c r="D3411">
+        <v>142</v>
+      </c>
+      <c r="E3411">
+        <v>358</v>
+      </c>
+      <c r="F3411">
+        <v>361</v>
+      </c>
+      <c r="G3411">
+        <v>202</v>
+      </c>
+      <c r="H3411">
+        <v>415</v>
+      </c>
+      <c r="I3411">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:9">
+      <c r="A3412" s="1">
+        <v>3410</v>
+      </c>
+      <c r="B3412">
+        <v>256</v>
+      </c>
+      <c r="C3412" s="2">
+        <v>44953</v>
+      </c>
+      <c r="D3412">
+        <v>140</v>
+      </c>
+      <c r="E3412">
+        <v>366</v>
+      </c>
+      <c r="F3412">
+        <v>354</v>
+      </c>
+      <c r="G3412">
+        <v>199</v>
+      </c>
+      <c r="H3412">
+        <v>411</v>
+      </c>
+      <c r="I3412">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:9">
+      <c r="A3413" s="1">
+        <v>3411</v>
+      </c>
+      <c r="B3413">
+        <v>258</v>
+      </c>
+      <c r="C3413" s="2">
+        <v>44956</v>
+      </c>
+      <c r="D3413">
+        <v>145</v>
+      </c>
+      <c r="E3413">
+        <v>376</v>
+      </c>
+      <c r="F3413">
+        <v>364</v>
+      </c>
+      <c r="G3413">
+        <v>204</v>
+      </c>
+      <c r="H3413">
+        <v>419</v>
+      </c>
+      <c r="I3413">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:9">
+      <c r="A3414" s="1">
+        <v>3412</v>
+      </c>
+      <c r="B3414">
+        <v>257</v>
+      </c>
+      <c r="C3414" s="2">
+        <v>44957</v>
+      </c>
+      <c r="D3414">
+        <v>146</v>
+      </c>
+      <c r="E3414">
+        <v>376</v>
+      </c>
+      <c r="F3414">
+        <v>357</v>
+      </c>
+      <c r="G3414">
+        <v>206</v>
+      </c>
+      <c r="H3414">
+        <v>418</v>
+      </c>
+      <c r="I3414">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:9">
+      <c r="A3415" s="1">
+        <v>3413</v>
+      </c>
+      <c r="B3415">
+        <v>256</v>
+      </c>
+      <c r="C3415" s="2">
+        <v>44958</v>
+      </c>
+      <c r="D3415">
+        <v>146</v>
+      </c>
+      <c r="E3415">
+        <v>371</v>
+      </c>
+      <c r="F3415">
+        <v>358</v>
+      </c>
+      <c r="G3415">
+        <v>207</v>
+      </c>
+      <c r="H3415">
+        <v>417</v>
+      </c>
+      <c r="I3415">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:9">
+      <c r="A3416" s="1">
+        <v>3414</v>
+      </c>
+      <c r="B3416">
+        <v>248</v>
+      </c>
+      <c r="C3416" s="2">
+        <v>44959</v>
+      </c>
+      <c r="D3416">
+        <v>139</v>
+      </c>
+      <c r="E3416">
+        <v>360</v>
+      </c>
+      <c r="F3416">
+        <v>343</v>
+      </c>
+      <c r="G3416">
+        <v>197</v>
+      </c>
+      <c r="H3416">
+        <v>403</v>
+      </c>
+      <c r="I3416">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:9">
+      <c r="A3417" s="1">
+        <v>3415</v>
+      </c>
+      <c r="B3417">
+        <v>242</v>
+      </c>
+      <c r="C3417" s="2">
+        <v>44960</v>
+      </c>
+      <c r="D3417">
+        <v>136</v>
+      </c>
+      <c r="E3417">
+        <v>359</v>
+      </c>
+      <c r="F3417">
+        <v>342</v>
+      </c>
+      <c r="G3417">
+        <v>193</v>
+      </c>
+      <c r="H3417">
+        <v>403</v>
+      </c>
+      <c r="I3417">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:9">
+      <c r="A3418" s="1">
+        <v>3416</v>
+      </c>
+      <c r="B3418">
+        <v>238</v>
+      </c>
+      <c r="C3418" s="2">
+        <v>44963</v>
+      </c>
+      <c r="D3418">
+        <v>135</v>
+      </c>
+      <c r="E3418">
+        <v>361</v>
+      </c>
+      <c r="F3418">
+        <v>348</v>
+      </c>
+      <c r="G3418">
+        <v>190</v>
+      </c>
+      <c r="H3418">
+        <v>411</v>
+      </c>
+      <c r="I3418">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:9">
+      <c r="A3419" s="1">
+        <v>3417</v>
+      </c>
+      <c r="B3419">
+        <v>238</v>
+      </c>
+      <c r="C3419" s="2">
+        <v>44964</v>
+      </c>
+      <c r="D3419">
+        <v>136</v>
+      </c>
+      <c r="E3419">
+        <v>362</v>
+      </c>
+      <c r="F3419">
+        <v>352</v>
+      </c>
+      <c r="G3419">
+        <v>191</v>
+      </c>
+      <c r="H3419">
+        <v>414</v>
+      </c>
+      <c r="I3419">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:9">
+      <c r="A3420" s="1">
+        <v>3418</v>
+      </c>
+      <c r="B3420">
+        <v>246</v>
+      </c>
+      <c r="C3420" s="2">
+        <v>44965</v>
+      </c>
+      <c r="D3420">
+        <v>142</v>
+      </c>
+      <c r="E3420">
+        <v>368</v>
+      </c>
+      <c r="F3420">
+        <v>360</v>
+      </c>
+      <c r="G3420">
+        <v>195</v>
+      </c>
+      <c r="H3420">
+        <v>420</v>
+      </c>
+      <c r="I3420">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:9">
+      <c r="A3421" s="1">
+        <v>3419</v>
+      </c>
+      <c r="B3421">
+        <v>246</v>
+      </c>
+      <c r="C3421" s="2">
+        <v>44966</v>
+      </c>
+      <c r="D3421">
+        <v>140</v>
+      </c>
+      <c r="E3421">
+        <v>371</v>
+      </c>
+      <c r="F3421">
+        <v>359</v>
+      </c>
+      <c r="G3421">
+        <v>193</v>
+      </c>
+      <c r="H3421">
+        <v>420</v>
+      </c>
+      <c r="I3421">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:9">
+      <c r="A3422" s="1">
+        <v>3420</v>
+      </c>
+      <c r="B3422">
+        <v>248</v>
+      </c>
+      <c r="C3422" s="2">
+        <v>44967</v>
+      </c>
+      <c r="D3422">
+        <v>140</v>
+      </c>
+      <c r="E3422">
+        <v>379</v>
+      </c>
+      <c r="F3422">
+        <v>364</v>
+      </c>
+      <c r="G3422">
+        <v>196</v>
+      </c>
+      <c r="H3422">
+        <v>426</v>
+      </c>
+      <c r="I3422">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:9">
+      <c r="A3423" s="1">
+        <v>3421</v>
+      </c>
+      <c r="B3423">
+        <v>246</v>
+      </c>
+      <c r="C3423" s="2">
+        <v>44970</v>
+      </c>
+      <c r="D3423">
+        <v>140</v>
+      </c>
+      <c r="E3423">
+        <v>379</v>
+      </c>
+      <c r="F3423">
+        <v>363</v>
+      </c>
+      <c r="G3423">
+        <v>196</v>
+      </c>
+      <c r="H3423">
+        <v>425</v>
+      </c>
+      <c r="I3423">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:9">
+      <c r="A3424" s="1">
+        <v>3422</v>
+      </c>
+      <c r="B3424">
+        <v>246</v>
+      </c>
+      <c r="C3424" s="2">
+        <v>44971</v>
+      </c>
+      <c r="D3424">
+        <v>139</v>
+      </c>
+      <c r="E3424">
+        <v>379</v>
+      </c>
+      <c r="F3424">
+        <v>363</v>
+      </c>
+      <c r="G3424">
+        <v>190</v>
+      </c>
+      <c r="H3424">
+        <v>423</v>
+      </c>
+      <c r="I3424">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:9">
+      <c r="A3425" s="1">
+        <v>3423</v>
+      </c>
+      <c r="B3425">
+        <v>246</v>
+      </c>
+      <c r="C3425" s="2">
+        <v>44972</v>
+      </c>
+      <c r="D3425">
+        <v>140</v>
+      </c>
+      <c r="E3425">
+        <v>388</v>
+      </c>
+      <c r="F3425">
+        <v>365</v>
+      </c>
+      <c r="G3425">
+        <v>191</v>
+      </c>
+      <c r="H3425">
+        <v>428</v>
+      </c>
+      <c r="I3425">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:9">
+      <c r="A3426" s="1">
+        <v>3424</v>
+      </c>
+      <c r="B3426">
+        <v>247</v>
+      </c>
+      <c r="C3426" s="2">
+        <v>44973</v>
+      </c>
+      <c r="D3426">
+        <v>135</v>
+      </c>
+      <c r="E3426">
+        <v>389</v>
+      </c>
+      <c r="F3426">
+        <v>359</v>
+      </c>
+      <c r="G3426">
+        <v>186</v>
+      </c>
+      <c r="H3426">
+        <v>428</v>
+      </c>
+      <c r="I3426">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:9">
+      <c r="A3427" s="1">
+        <v>3425</v>
+      </c>
+      <c r="B3427">
+        <v>252</v>
+      </c>
+      <c r="C3427" s="2">
+        <v>44974</v>
+      </c>
+      <c r="D3427">
+        <v>139</v>
+      </c>
+      <c r="E3427">
+        <v>411</v>
+      </c>
+      <c r="F3427">
+        <v>364</v>
+      </c>
+      <c r="G3427">
+        <v>192</v>
+      </c>
+      <c r="H3427">
+        <v>437</v>
+      </c>
+      <c r="I3427">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:9">
+      <c r="A3428" s="1">
+        <v>3426</v>
+      </c>
+      <c r="B3428">
+        <v>252</v>
+      </c>
+      <c r="C3428" s="2">
+        <v>44977</v>
+      </c>
+      <c r="D3428">
+        <v>139</v>
+      </c>
+      <c r="E3428">
+        <v>411</v>
+      </c>
+      <c r="F3428">
+        <v>364</v>
+      </c>
+      <c r="G3428">
+        <v>192</v>
+      </c>
+      <c r="H3428">
+        <v>437</v>
+      </c>
+      <c r="I3428">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:9">
+      <c r="A3429" s="1">
+        <v>3427</v>
+      </c>
+      <c r="B3429">
+        <v>249</v>
+      </c>
+      <c r="C3429" s="2">
+        <v>44978</v>
+      </c>
+      <c r="D3429">
+        <v>135</v>
+      </c>
+      <c r="E3429">
+        <v>417</v>
+      </c>
+      <c r="F3429">
+        <v>364</v>
+      </c>
+      <c r="G3429">
+        <v>188</v>
+      </c>
+      <c r="H3429">
+        <v>438</v>
+      </c>
+      <c r="I3429">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:9">
+      <c r="A3430" s="1">
+        <v>3428</v>
+      </c>
+      <c r="B3430">
+        <v>250</v>
+      </c>
+      <c r="C3430" s="2">
+        <v>44979</v>
+      </c>
+      <c r="D3430">
+        <v>140</v>
+      </c>
+      <c r="E3430">
+        <v>416</v>
+      </c>
+      <c r="F3430">
+        <v>366</v>
+      </c>
+      <c r="G3430">
+        <v>191</v>
+      </c>
+      <c r="H3430">
+        <v>437</v>
+      </c>
+      <c r="I3430">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:9">
+      <c r="A3431" s="1">
+        <v>3429</v>
+      </c>
+      <c r="B3431">
+        <v>245</v>
+      </c>
+      <c r="C3431" s="2">
+        <v>44980</v>
+      </c>
+      <c r="D3431">
+        <v>141</v>
+      </c>
+      <c r="E3431">
+        <v>395</v>
+      </c>
+      <c r="F3431">
+        <v>357</v>
+      </c>
+      <c r="G3431">
+        <v>189</v>
+      </c>
+      <c r="H3431">
+        <v>427</v>
+      </c>
+      <c r="I3431">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:9">
+      <c r="A3432" s="1">
+        <v>3430</v>
+      </c>
+      <c r="B3432">
+        <v>241</v>
+      </c>
+      <c r="C3432" s="2">
+        <v>44981</v>
+      </c>
+      <c r="D3432">
+        <v>140</v>
+      </c>
+      <c r="E3432">
+        <v>391</v>
+      </c>
+      <c r="F3432">
+        <v>355</v>
+      </c>
+      <c r="G3432">
+        <v>188</v>
+      </c>
+      <c r="H3432">
+        <v>426</v>
+      </c>
+      <c r="I3432">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:9">
+      <c r="A3433" s="1">
+        <v>3431</v>
+      </c>
+      <c r="B3433">
+        <v>242</v>
+      </c>
+      <c r="C3433" s="2">
+        <v>44984</v>
+      </c>
+      <c r="D3433">
+        <v>142</v>
+      </c>
+      <c r="E3433">
+        <v>387</v>
+      </c>
+      <c r="F3433">
+        <v>357</v>
+      </c>
+      <c r="G3433">
+        <v>190</v>
+      </c>
+      <c r="H3433">
+        <v>427</v>
+      </c>
+      <c r="I3433">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:9">
+      <c r="A3434" s="1">
+        <v>3432</v>
+      </c>
+      <c r="B3434">
+        <v>244</v>
+      </c>
+      <c r="C3434" s="2">
+        <v>44985</v>
+      </c>
+      <c r="D3434">
+        <v>145</v>
+      </c>
+      <c r="E3434">
+        <v>393</v>
+      </c>
+      <c r="F3434">
+        <v>368</v>
+      </c>
+      <c r="G3434">
+        <v>191</v>
+      </c>
+      <c r="H3434">
+        <v>431</v>
+      </c>
+      <c r="I3434">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:9">
+      <c r="A3435" s="1">
+        <v>3433</v>
+      </c>
+      <c r="B3435">
+        <v>242</v>
+      </c>
+      <c r="C3435" s="2">
+        <v>44986</v>
+      </c>
+      <c r="D3435">
+        <v>143</v>
+      </c>
+      <c r="E3435">
+        <v>395</v>
+      </c>
+      <c r="F3435">
+        <v>370</v>
+      </c>
+      <c r="G3435">
+        <v>191</v>
+      </c>
+      <c r="H3435">
+        <v>435</v>
+      </c>
+      <c r="I3435">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:9">
+      <c r="A3436" s="1">
+        <v>3434</v>
+      </c>
+      <c r="B3436">
+        <v>243</v>
+      </c>
+      <c r="C3436" s="2">
+        <v>44987</v>
+      </c>
+      <c r="D3436">
+        <v>142</v>
+      </c>
+      <c r="E3436">
+        <v>399</v>
+      </c>
+      <c r="F3436">
+        <v>373</v>
+      </c>
+      <c r="G3436">
+        <v>192</v>
+      </c>
+      <c r="H3436">
+        <v>437</v>
+      </c>
+      <c r="I3436">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:9">
+      <c r="A3437" s="1">
+        <v>3435</v>
+      </c>
+      <c r="B3437">
+        <v>242</v>
+      </c>
+      <c r="C3437" s="2">
+        <v>44988</v>
+      </c>
+      <c r="D3437">
+        <v>143</v>
+      </c>
+      <c r="E3437">
+        <v>392</v>
+      </c>
+      <c r="F3437">
+        <v>371</v>
+      </c>
+      <c r="G3437">
+        <v>191</v>
+      </c>
+      <c r="H3437">
+        <v>433</v>
+      </c>
+      <c r="I3437">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:9">
+      <c r="A3438" s="1">
+        <v>3436</v>
+      </c>
+      <c r="B3438">
+        <v>242</v>
+      </c>
+      <c r="C3438" s="2">
+        <v>44991</v>
+      </c>
+      <c r="D3438">
+        <v>139</v>
+      </c>
+      <c r="E3438">
+        <v>385</v>
+      </c>
+      <c r="F3438">
+        <v>365</v>
+      </c>
+      <c r="G3438">
+        <v>187</v>
+      </c>
+      <c r="H3438">
+        <v>426</v>
+      </c>
+      <c r="I3438">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:9">
+      <c r="A3439" s="1">
+        <v>3437</v>
+      </c>
+      <c r="B3439">
+        <v>246</v>
+      </c>
+      <c r="C3439" s="2">
+        <v>44992</v>
+      </c>
+      <c r="D3439">
+        <v>141</v>
+      </c>
+      <c r="E3439">
+        <v>388</v>
+      </c>
+      <c r="F3439">
+        <v>371</v>
+      </c>
+      <c r="G3439">
+        <v>190</v>
+      </c>
+      <c r="H3439">
+        <v>430</v>
+      </c>
+      <c r="I3439">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:9">
+      <c r="A3440" s="1">
+        <v>3438</v>
+      </c>
+      <c r="B3440">
+        <v>247</v>
+      </c>
+      <c r="C3440" s="2">
+        <v>44993</v>
+      </c>
+      <c r="D3440">
+        <v>143</v>
+      </c>
+      <c r="E3440">
+        <v>393</v>
+      </c>
+      <c r="F3440">
+        <v>377</v>
+      </c>
+      <c r="G3440">
+        <v>191</v>
+      </c>
+      <c r="H3440">
+        <v>435</v>
+      </c>
+      <c r="I3440">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:9">
+      <c r="A3441" s="1">
+        <v>3439</v>
+      </c>
+      <c r="B3441">
+        <v>254</v>
+      </c>
+      <c r="C3441" s="2">
+        <v>44994</v>
+      </c>
+      <c r="D3441">
+        <v>149</v>
+      </c>
+      <c r="E3441">
+        <v>405</v>
+      </c>
+      <c r="F3441">
+        <v>386</v>
+      </c>
+      <c r="G3441">
+        <v>197</v>
+      </c>
+      <c r="H3441">
+        <v>445</v>
+      </c>
+      <c r="I3441">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:9">
+      <c r="A3442" s="1">
+        <v>3440</v>
+      </c>
+      <c r="B3442">
+        <v>262</v>
+      </c>
+      <c r="C3442" s="2">
+        <v>44995</v>
+      </c>
+      <c r="D3442">
+        <v>157</v>
+      </c>
+      <c r="E3442">
+        <v>417</v>
+      </c>
+      <c r="F3442">
+        <v>396</v>
+      </c>
+      <c r="G3442">
+        <v>204</v>
+      </c>
+      <c r="H3442">
+        <v>458</v>
+      </c>
+      <c r="I3442">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:9">
+      <c r="A3443" s="1">
+        <v>3441</v>
+      </c>
+      <c r="B3443">
+        <v>273</v>
+      </c>
+      <c r="C3443" s="2">
+        <v>44998</v>
+      </c>
+      <c r="D3443">
+        <v>161</v>
+      </c>
+      <c r="E3443">
+        <v>430</v>
+      </c>
+      <c r="F3443">
+        <v>408</v>
+      </c>
+      <c r="G3443">
+        <v>209</v>
+      </c>
+      <c r="H3443">
+        <v>473</v>
+      </c>
+      <c r="I3443">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:9">
+      <c r="A3444" s="1">
+        <v>3442</v>
+      </c>
+      <c r="B3444">
+        <v>262</v>
+      </c>
+      <c r="C3444" s="2">
+        <v>44999</v>
+      </c>
+      <c r="D3444">
+        <v>151</v>
+      </c>
+      <c r="E3444">
+        <v>422</v>
+      </c>
+      <c r="F3444">
+        <v>399</v>
+      </c>
+      <c r="G3444">
+        <v>200</v>
+      </c>
+      <c r="H3444">
+        <v>464</v>
+      </c>
+      <c r="I3444">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:9">
+      <c r="A3445" s="1">
+        <v>3443</v>
+      </c>
+      <c r="B3445">
+        <v>277</v>
+      </c>
+      <c r="C3445" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D3445">
+        <v>162</v>
+      </c>
+      <c r="E3445">
+        <v>448</v>
+      </c>
+      <c r="F3445">
+        <v>424</v>
+      </c>
+      <c r="G3445">
+        <v>214</v>
+      </c>
+      <c r="H3445">
+        <v>487</v>
+      </c>
+      <c r="I3445">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:9">
+      <c r="A3446" s="1">
+        <v>3444</v>
+      </c>
+      <c r="B3446">
+        <v>266</v>
+      </c>
+      <c r="C3446" s="2">
+        <v>45001</v>
+      </c>
+      <c r="D3446">
+        <v>154</v>
+      </c>
+      <c r="E3446">
+        <v>435</v>
+      </c>
+      <c r="F3446">
+        <v>416</v>
+      </c>
+      <c r="G3446">
+        <v>204</v>
+      </c>
+      <c r="H3446">
+        <v>476</v>
+      </c>
+      <c r="I3446">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:9">
+      <c r="A3447" s="1">
+        <v>3445</v>
+      </c>
+      <c r="B3447">
+        <v>278</v>
+      </c>
+      <c r="C3447" s="2">
+        <v>45002</v>
+      </c>
+      <c r="D3447">
+        <v>163</v>
+      </c>
+      <c r="E3447">
+        <v>447</v>
+      </c>
+      <c r="F3447">
+        <v>430</v>
+      </c>
+      <c r="G3447">
+        <v>214</v>
+      </c>
+      <c r="H3447">
+        <v>492</v>
+      </c>
+      <c r="I3447">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:9">
+      <c r="A3448" s="1">
+        <v>3446</v>
+      </c>
+      <c r="B3448">
+        <v>270</v>
+      </c>
+      <c r="C3448" s="2">
+        <v>45005</v>
+      </c>
+      <c r="D3448">
+        <v>159</v>
+      </c>
+      <c r="E3448">
+        <v>442</v>
+      </c>
+      <c r="F3448">
+        <v>430</v>
+      </c>
+      <c r="G3448">
+        <v>211</v>
+      </c>
+      <c r="H3448">
+        <v>489</v>
+      </c>
+      <c r="I3448">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:9">
+      <c r="A3449" s="1">
+        <v>3447</v>
+      </c>
+      <c r="B3449">
+        <v>259</v>
+      </c>
+      <c r="C3449" s="2">
+        <v>45006</v>
+      </c>
+      <c r="D3449">
+        <v>154</v>
+      </c>
+      <c r="E3449">
+        <v>422</v>
+      </c>
+      <c r="F3449">
+        <v>416</v>
+      </c>
+      <c r="G3449">
+        <v>205</v>
+      </c>
+      <c r="H3449">
+        <v>476</v>
+      </c>
+      <c r="I3449">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:9">
+      <c r="A3450" s="1">
+        <v>3448</v>
+      </c>
+      <c r="B3450">
+        <v>267</v>
+      </c>
+      <c r="C3450" s="2">
+        <v>45007</v>
+      </c>
+      <c r="D3450">
+        <v>161</v>
+      </c>
+      <c r="E3450">
+        <v>426</v>
+      </c>
+      <c r="F3450">
+        <v>417</v>
+      </c>
+      <c r="G3450">
+        <v>216</v>
+      </c>
+      <c r="H3450">
+        <v>484</v>
+      </c>
+      <c r="I3450">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:9">
+      <c r="A3451" s="1">
+        <v>3449</v>
+      </c>
+      <c r="B3451">
+        <v>268</v>
+      </c>
+      <c r="C3451" s="2">
+        <v>45008</v>
+      </c>
+      <c r="D3451">
+        <v>160</v>
+      </c>
+      <c r="E3451">
+        <v>421</v>
+      </c>
+      <c r="F3451">
+        <v>417</v>
+      </c>
+      <c r="G3451">
+        <v>216</v>
+      </c>
+      <c r="H3451">
+        <v>485</v>
+      </c>
+      <c r="I3451">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:9">
+      <c r="A3452" s="1">
+        <v>3450</v>
+      </c>
+      <c r="B3452">
+        <v>271</v>
+      </c>
+      <c r="C3452" s="2">
+        <v>45009</v>
+      </c>
+      <c r="D3452">
+        <v>160</v>
+      </c>
+      <c r="E3452">
+        <v>419</v>
+      </c>
+      <c r="F3452">
+        <v>422</v>
+      </c>
+      <c r="G3452">
+        <v>215</v>
+      </c>
+      <c r="H3452">
+        <v>488</v>
+      </c>
+      <c r="I3452">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:9">
+      <c r="A3453" s="1">
+        <v>3451</v>
+      </c>
+      <c r="B3453">
+        <v>258</v>
+      </c>
+      <c r="C3453" s="2">
+        <v>45012</v>
+      </c>
+      <c r="D3453">
+        <v>149</v>
+      </c>
+      <c r="E3453">
+        <v>407</v>
+      </c>
+      <c r="F3453">
+        <v>413</v>
+      </c>
+      <c r="G3453">
+        <v>206</v>
+      </c>
+      <c r="H3453">
+        <v>476</v>
+      </c>
+      <c r="I3453">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:9">
+      <c r="A3454" s="1">
+        <v>3452</v>
+      </c>
+      <c r="B3454">
+        <v>257</v>
+      </c>
+      <c r="C3454" s="2">
+        <v>45013</v>
+      </c>
+      <c r="D3454">
+        <v>151</v>
+      </c>
+      <c r="E3454">
+        <v>408</v>
+      </c>
+      <c r="F3454">
+        <v>415</v>
+      </c>
+      <c r="G3454">
+        <v>210</v>
+      </c>
+      <c r="H3454">
+        <v>479</v>
+      </c>
+      <c r="I3454">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:9">
+      <c r="A3455" s="1">
+        <v>3453</v>
+      </c>
+      <c r="B3455">
+        <v>252</v>
+      </c>
+      <c r="C3455" s="2">
+        <v>45014</v>
+      </c>
+      <c r="D3455">
+        <v>150</v>
+      </c>
+      <c r="E3455">
+        <v>393</v>
+      </c>
+      <c r="F3455">
+        <v>408</v>
+      </c>
+      <c r="G3455">
+        <v>207</v>
+      </c>
+      <c r="H3455">
+        <v>469</v>
+      </c>
+      <c r="I3455">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:9">
+      <c r="A3456" s="1">
+        <v>3454</v>
+      </c>
+      <c r="B3456">
+        <v>252</v>
+      </c>
+      <c r="C3456" s="2">
+        <v>45015</v>
+      </c>
+      <c r="D3456">
+        <v>151</v>
+      </c>
+      <c r="E3456">
+        <v>391</v>
+      </c>
+      <c r="F3456">
+        <v>399</v>
+      </c>
+      <c r="G3456">
+        <v>209</v>
+      </c>
+      <c r="H3456">
+        <v>465</v>
+      </c>
+      <c r="I3456">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:9">
+      <c r="A3457" s="1">
+        <v>3455</v>
+      </c>
+      <c r="B3457">
+        <v>254</v>
+      </c>
+      <c r="C3457" s="2">
+        <v>45016</v>
+      </c>
+      <c r="D3457">
+        <v>153</v>
+      </c>
+      <c r="E3457">
+        <v>382</v>
+      </c>
+      <c r="F3457">
+        <v>393</v>
+      </c>
+      <c r="G3457">
+        <v>209</v>
+      </c>
+      <c r="H3457">
+        <v>461</v>
+      </c>
+      <c r="I3457">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:9">
+      <c r="A3458" s="1">
+        <v>3456</v>
+      </c>
+      <c r="B3458">
+        <v>252</v>
+      </c>
+      <c r="C3458" s="2">
+        <v>45019</v>
+      </c>
+      <c r="D3458">
+        <v>151</v>
+      </c>
+      <c r="E3458">
+        <v>375</v>
+      </c>
+      <c r="F3458">
+        <v>389</v>
+      </c>
+      <c r="G3458">
+        <v>205</v>
+      </c>
+      <c r="H3458">
+        <v>456</v>
+      </c>
+      <c r="I3458">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:9">
+      <c r="A3459" s="1">
+        <v>3457</v>
+      </c>
+      <c r="B3459">
+        <v>255</v>
+      </c>
+      <c r="C3459" s="2">
+        <v>45020</v>
+      </c>
+      <c r="D3459">
+        <v>155</v>
+      </c>
+      <c r="E3459">
+        <v>388</v>
+      </c>
+      <c r="F3459">
+        <v>402</v>
+      </c>
+      <c r="G3459">
+        <v>210</v>
+      </c>
+      <c r="H3459">
+        <v>467</v>
+      </c>
+      <c r="I3459">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/mercados/embig.xlsx
+++ b/mercados/embig.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3459"/>
+  <dimension ref="A1:I3530"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -100713,6 +100713,2065 @@
         <v>403</v>
       </c>
     </row>
+    <row r="3460" spans="1:9">
+      <c r="A3460" s="1">
+        <v>3458</v>
+      </c>
+      <c r="B3460">
+        <v>261</v>
+      </c>
+      <c r="C3460" s="2">
+        <v>45021</v>
+      </c>
+      <c r="D3460">
+        <v>156</v>
+      </c>
+      <c r="E3460">
+        <v>397</v>
+      </c>
+      <c r="F3460">
+        <v>408</v>
+      </c>
+      <c r="G3460">
+        <v>212</v>
+      </c>
+      <c r="H3460">
+        <v>473</v>
+      </c>
+      <c r="I3460">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:9">
+      <c r="A3461" s="1">
+        <v>3459</v>
+      </c>
+      <c r="B3461">
+        <v>263</v>
+      </c>
+      <c r="C3461" s="2">
+        <v>45022</v>
+      </c>
+      <c r="D3461">
+        <v>155</v>
+      </c>
+      <c r="E3461">
+        <v>404</v>
+      </c>
+      <c r="F3461">
+        <v>409</v>
+      </c>
+      <c r="G3461">
+        <v>211</v>
+      </c>
+      <c r="H3461">
+        <v>475</v>
+      </c>
+      <c r="I3461">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:9">
+      <c r="A3462" s="1">
+        <v>3460</v>
+      </c>
+      <c r="B3462">
+        <v>258</v>
+      </c>
+      <c r="C3462" s="2">
+        <v>45023</v>
+      </c>
+      <c r="D3462">
+        <v>151</v>
+      </c>
+      <c r="E3462">
+        <v>397</v>
+      </c>
+      <c r="F3462">
+        <v>400</v>
+      </c>
+      <c r="G3462">
+        <v>207</v>
+      </c>
+      <c r="H3462">
+        <v>469</v>
+      </c>
+      <c r="I3462">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:9">
+      <c r="A3463" s="1">
+        <v>3461</v>
+      </c>
+      <c r="B3463">
+        <v>260</v>
+      </c>
+      <c r="C3463" s="2">
+        <v>45026</v>
+      </c>
+      <c r="D3463">
+        <v>150</v>
+      </c>
+      <c r="E3463">
+        <v>401</v>
+      </c>
+      <c r="F3463">
+        <v>401</v>
+      </c>
+      <c r="G3463">
+        <v>205</v>
+      </c>
+      <c r="H3463">
+        <v>469</v>
+      </c>
+      <c r="I3463">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:9">
+      <c r="A3464" s="1">
+        <v>3462</v>
+      </c>
+      <c r="B3464">
+        <v>260</v>
+      </c>
+      <c r="C3464" s="2">
+        <v>45027</v>
+      </c>
+      <c r="D3464">
+        <v>149</v>
+      </c>
+      <c r="E3464">
+        <v>403</v>
+      </c>
+      <c r="F3464">
+        <v>400</v>
+      </c>
+      <c r="G3464">
+        <v>204</v>
+      </c>
+      <c r="H3464">
+        <v>468</v>
+      </c>
+      <c r="I3464">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:9">
+      <c r="A3465" s="1">
+        <v>3463</v>
+      </c>
+      <c r="B3465">
+        <v>261</v>
+      </c>
+      <c r="C3465" s="2">
+        <v>45028</v>
+      </c>
+      <c r="D3465">
+        <v>149</v>
+      </c>
+      <c r="E3465">
+        <v>404</v>
+      </c>
+      <c r="F3465">
+        <v>399</v>
+      </c>
+      <c r="G3465">
+        <v>204</v>
+      </c>
+      <c r="H3465">
+        <v>467</v>
+      </c>
+      <c r="I3465">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3466" spans="1:9">
+      <c r="A3466" s="1">
+        <v>3464</v>
+      </c>
+      <c r="B3466">
+        <v>257</v>
+      </c>
+      <c r="C3466" s="2">
+        <v>45029</v>
+      </c>
+      <c r="D3466">
+        <v>147</v>
+      </c>
+      <c r="E3466">
+        <v>399</v>
+      </c>
+      <c r="F3466">
+        <v>397</v>
+      </c>
+      <c r="G3466">
+        <v>201</v>
+      </c>
+      <c r="H3466">
+        <v>464</v>
+      </c>
+      <c r="I3466">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3467" spans="1:9">
+      <c r="A3467" s="1">
+        <v>3465</v>
+      </c>
+      <c r="B3467">
+        <v>249</v>
+      </c>
+      <c r="C3467" s="2">
+        <v>45030</v>
+      </c>
+      <c r="D3467">
+        <v>143</v>
+      </c>
+      <c r="E3467">
+        <v>396</v>
+      </c>
+      <c r="F3467">
+        <v>390</v>
+      </c>
+      <c r="G3467">
+        <v>198</v>
+      </c>
+      <c r="H3467">
+        <v>458</v>
+      </c>
+      <c r="I3467">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3468" spans="1:9">
+      <c r="A3468" s="1">
+        <v>3466</v>
+      </c>
+      <c r="B3468">
+        <v>249</v>
+      </c>
+      <c r="C3468" s="2">
+        <v>45033</v>
+      </c>
+      <c r="D3468">
+        <v>140</v>
+      </c>
+      <c r="E3468">
+        <v>396</v>
+      </c>
+      <c r="F3468">
+        <v>391</v>
+      </c>
+      <c r="G3468">
+        <v>197</v>
+      </c>
+      <c r="H3468">
+        <v>458</v>
+      </c>
+      <c r="I3468">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3469" spans="1:9">
+      <c r="A3469" s="1">
+        <v>3467</v>
+      </c>
+      <c r="B3469">
+        <v>249</v>
+      </c>
+      <c r="C3469" s="2">
+        <v>45034</v>
+      </c>
+      <c r="D3469">
+        <v>143</v>
+      </c>
+      <c r="E3469">
+        <v>396</v>
+      </c>
+      <c r="F3469">
+        <v>390</v>
+      </c>
+      <c r="G3469">
+        <v>198</v>
+      </c>
+      <c r="H3469">
+        <v>461</v>
+      </c>
+      <c r="I3469">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3470" spans="1:9">
+      <c r="A3470" s="1">
+        <v>3468</v>
+      </c>
+      <c r="B3470">
+        <v>251</v>
+      </c>
+      <c r="C3470" s="2">
+        <v>45035</v>
+      </c>
+      <c r="D3470">
+        <v>145</v>
+      </c>
+      <c r="E3470">
+        <v>398</v>
+      </c>
+      <c r="F3470">
+        <v>394</v>
+      </c>
+      <c r="G3470">
+        <v>200</v>
+      </c>
+      <c r="H3470">
+        <v>467</v>
+      </c>
+      <c r="I3470">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3471" spans="1:9">
+      <c r="A3471" s="1">
+        <v>3469</v>
+      </c>
+      <c r="B3471">
+        <v>255</v>
+      </c>
+      <c r="C3471" s="2">
+        <v>45036</v>
+      </c>
+      <c r="D3471">
+        <v>148</v>
+      </c>
+      <c r="E3471">
+        <v>406</v>
+      </c>
+      <c r="F3471">
+        <v>398</v>
+      </c>
+      <c r="G3471">
+        <v>203</v>
+      </c>
+      <c r="H3471">
+        <v>472</v>
+      </c>
+      <c r="I3471">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3472" spans="1:9">
+      <c r="A3472" s="1">
+        <v>3470</v>
+      </c>
+      <c r="B3472">
+        <v>252</v>
+      </c>
+      <c r="C3472" s="2">
+        <v>45037</v>
+      </c>
+      <c r="D3472">
+        <v>145</v>
+      </c>
+      <c r="E3472">
+        <v>401</v>
+      </c>
+      <c r="F3472">
+        <v>393</v>
+      </c>
+      <c r="G3472">
+        <v>199</v>
+      </c>
+      <c r="H3472">
+        <v>466</v>
+      </c>
+      <c r="I3472">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="3473" spans="1:9">
+      <c r="A3473" s="1">
+        <v>3471</v>
+      </c>
+      <c r="B3473">
+        <v>256</v>
+      </c>
+      <c r="C3473" s="2">
+        <v>45040</v>
+      </c>
+      <c r="D3473">
+        <v>147</v>
+      </c>
+      <c r="E3473">
+        <v>402</v>
+      </c>
+      <c r="F3473">
+        <v>394</v>
+      </c>
+      <c r="G3473">
+        <v>200</v>
+      </c>
+      <c r="H3473">
+        <v>468</v>
+      </c>
+      <c r="I3473">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3474" spans="1:9">
+      <c r="A3474" s="1">
+        <v>3472</v>
+      </c>
+      <c r="B3474">
+        <v>264</v>
+      </c>
+      <c r="C3474" s="2">
+        <v>45041</v>
+      </c>
+      <c r="D3474">
+        <v>149</v>
+      </c>
+      <c r="E3474">
+        <v>401</v>
+      </c>
+      <c r="F3474">
+        <v>399</v>
+      </c>
+      <c r="G3474">
+        <v>201</v>
+      </c>
+      <c r="H3474">
+        <v>472</v>
+      </c>
+      <c r="I3474">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3475" spans="1:9">
+      <c r="A3475" s="1">
+        <v>3473</v>
+      </c>
+      <c r="B3475">
+        <v>263</v>
+      </c>
+      <c r="C3475" s="2">
+        <v>45042</v>
+      </c>
+      <c r="D3475">
+        <v>147</v>
+      </c>
+      <c r="E3475">
+        <v>432</v>
+      </c>
+      <c r="F3475">
+        <v>401</v>
+      </c>
+      <c r="G3475">
+        <v>197</v>
+      </c>
+      <c r="H3475">
+        <v>473</v>
+      </c>
+      <c r="I3475">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3476" spans="1:9">
+      <c r="A3476" s="1">
+        <v>3474</v>
+      </c>
+      <c r="B3476">
+        <v>258</v>
+      </c>
+      <c r="C3476" s="2">
+        <v>45043</v>
+      </c>
+      <c r="D3476">
+        <v>142</v>
+      </c>
+      <c r="E3476">
+        <v>425</v>
+      </c>
+      <c r="F3476">
+        <v>401</v>
+      </c>
+      <c r="G3476">
+        <v>193</v>
+      </c>
+      <c r="H3476">
+        <v>470</v>
+      </c>
+      <c r="I3476">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3477" spans="1:9">
+      <c r="A3477" s="1">
+        <v>3475</v>
+      </c>
+      <c r="B3477">
+        <v>258</v>
+      </c>
+      <c r="C3477" s="2">
+        <v>45044</v>
+      </c>
+      <c r="D3477">
+        <v>143</v>
+      </c>
+      <c r="E3477">
+        <v>422</v>
+      </c>
+      <c r="F3477">
+        <v>396</v>
+      </c>
+      <c r="G3477">
+        <v>193</v>
+      </c>
+      <c r="H3477">
+        <v>465</v>
+      </c>
+      <c r="I3477">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3478" spans="1:9">
+      <c r="A3478" s="1">
+        <v>3476</v>
+      </c>
+      <c r="B3478">
+        <v>249</v>
+      </c>
+      <c r="C3478" s="2">
+        <v>45047</v>
+      </c>
+      <c r="D3478">
+        <v>136</v>
+      </c>
+      <c r="E3478">
+        <v>414</v>
+      </c>
+      <c r="F3478">
+        <v>392</v>
+      </c>
+      <c r="G3478">
+        <v>187</v>
+      </c>
+      <c r="H3478">
+        <v>459</v>
+      </c>
+      <c r="I3478">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3479" spans="1:9">
+      <c r="A3479" s="1">
+        <v>3477</v>
+      </c>
+      <c r="B3479">
+        <v>262</v>
+      </c>
+      <c r="C3479" s="2">
+        <v>45048</v>
+      </c>
+      <c r="D3479">
+        <v>145</v>
+      </c>
+      <c r="E3479">
+        <v>425</v>
+      </c>
+      <c r="F3479">
+        <v>401</v>
+      </c>
+      <c r="G3479">
+        <v>199</v>
+      </c>
+      <c r="H3479">
+        <v>470</v>
+      </c>
+      <c r="I3479">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3480" spans="1:9">
+      <c r="A3480" s="1">
+        <v>3478</v>
+      </c>
+      <c r="B3480">
+        <v>266</v>
+      </c>
+      <c r="C3480" s="2">
+        <v>45049</v>
+      </c>
+      <c r="D3480">
+        <v>147</v>
+      </c>
+      <c r="E3480">
+        <v>425</v>
+      </c>
+      <c r="F3480">
+        <v>407</v>
+      </c>
+      <c r="G3480">
+        <v>201</v>
+      </c>
+      <c r="H3480">
+        <v>472</v>
+      </c>
+      <c r="I3480">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3481" spans="1:9">
+      <c r="A3481" s="1">
+        <v>3479</v>
+      </c>
+      <c r="B3481">
+        <v>266</v>
+      </c>
+      <c r="C3481" s="2">
+        <v>45050</v>
+      </c>
+      <c r="D3481">
+        <v>146</v>
+      </c>
+      <c r="E3481">
+        <v>427</v>
+      </c>
+      <c r="F3481">
+        <v>411</v>
+      </c>
+      <c r="G3481">
+        <v>201</v>
+      </c>
+      <c r="H3481">
+        <v>474</v>
+      </c>
+      <c r="I3481">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3482" spans="1:9">
+      <c r="A3482" s="1">
+        <v>3480</v>
+      </c>
+      <c r="B3482">
+        <v>262</v>
+      </c>
+      <c r="C3482" s="2">
+        <v>45051</v>
+      </c>
+      <c r="D3482">
+        <v>144</v>
+      </c>
+      <c r="E3482">
+        <v>425</v>
+      </c>
+      <c r="F3482">
+        <v>411</v>
+      </c>
+      <c r="G3482">
+        <v>201</v>
+      </c>
+      <c r="H3482">
+        <v>470</v>
+      </c>
+      <c r="I3482">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3483" spans="1:9">
+      <c r="A3483" s="1">
+        <v>3481</v>
+      </c>
+      <c r="B3483">
+        <v>257</v>
+      </c>
+      <c r="C3483" s="2">
+        <v>45054</v>
+      </c>
+      <c r="D3483">
+        <v>141</v>
+      </c>
+      <c r="E3483">
+        <v>421</v>
+      </c>
+      <c r="F3483">
+        <v>409</v>
+      </c>
+      <c r="G3483">
+        <v>198</v>
+      </c>
+      <c r="H3483">
+        <v>468</v>
+      </c>
+      <c r="I3483">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3484" spans="1:9">
+      <c r="A3484" s="1">
+        <v>3482</v>
+      </c>
+      <c r="B3484">
+        <v>254</v>
+      </c>
+      <c r="C3484" s="2">
+        <v>45055</v>
+      </c>
+      <c r="D3484">
+        <v>137</v>
+      </c>
+      <c r="E3484">
+        <v>420</v>
+      </c>
+      <c r="F3484">
+        <v>410</v>
+      </c>
+      <c r="G3484">
+        <v>197</v>
+      </c>
+      <c r="H3484">
+        <v>465</v>
+      </c>
+      <c r="I3484">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3485" spans="1:9">
+      <c r="A3485" s="1">
+        <v>3483</v>
+      </c>
+      <c r="B3485">
+        <v>258</v>
+      </c>
+      <c r="C3485" s="2">
+        <v>45056</v>
+      </c>
+      <c r="D3485">
+        <v>139</v>
+      </c>
+      <c r="E3485">
+        <v>419</v>
+      </c>
+      <c r="F3485">
+        <v>414</v>
+      </c>
+      <c r="G3485">
+        <v>199</v>
+      </c>
+      <c r="H3485">
+        <v>468</v>
+      </c>
+      <c r="I3485">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3486" spans="1:9">
+      <c r="A3486" s="1">
+        <v>3484</v>
+      </c>
+      <c r="B3486">
+        <v>259</v>
+      </c>
+      <c r="C3486" s="2">
+        <v>45057</v>
+      </c>
+      <c r="D3486">
+        <v>140</v>
+      </c>
+      <c r="E3486">
+        <v>416</v>
+      </c>
+      <c r="F3486">
+        <v>415</v>
+      </c>
+      <c r="G3486">
+        <v>199</v>
+      </c>
+      <c r="H3486">
+        <v>469</v>
+      </c>
+      <c r="I3486">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3487" spans="1:9">
+      <c r="A3487" s="1">
+        <v>3485</v>
+      </c>
+      <c r="B3487">
+        <v>256</v>
+      </c>
+      <c r="C3487" s="2">
+        <v>45058</v>
+      </c>
+      <c r="D3487">
+        <v>138</v>
+      </c>
+      <c r="E3487">
+        <v>418</v>
+      </c>
+      <c r="F3487">
+        <v>414</v>
+      </c>
+      <c r="G3487">
+        <v>198</v>
+      </c>
+      <c r="H3487">
+        <v>468</v>
+      </c>
+      <c r="I3487">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3488" spans="1:9">
+      <c r="A3488" s="1">
+        <v>3486</v>
+      </c>
+      <c r="B3488">
+        <v>256</v>
+      </c>
+      <c r="C3488" s="2">
+        <v>45061</v>
+      </c>
+      <c r="D3488">
+        <v>140</v>
+      </c>
+      <c r="E3488">
+        <v>421</v>
+      </c>
+      <c r="F3488">
+        <v>418</v>
+      </c>
+      <c r="G3488">
+        <v>199</v>
+      </c>
+      <c r="H3488">
+        <v>472</v>
+      </c>
+      <c r="I3488">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="3489" spans="1:9">
+      <c r="A3489" s="1">
+        <v>3487</v>
+      </c>
+      <c r="B3489">
+        <v>251</v>
+      </c>
+      <c r="C3489" s="2">
+        <v>45062</v>
+      </c>
+      <c r="D3489">
+        <v>137</v>
+      </c>
+      <c r="E3489">
+        <v>415</v>
+      </c>
+      <c r="F3489">
+        <v>416</v>
+      </c>
+      <c r="G3489">
+        <v>198</v>
+      </c>
+      <c r="H3489">
+        <v>469</v>
+      </c>
+      <c r="I3489">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3490" spans="1:9">
+      <c r="A3490" s="1">
+        <v>3488</v>
+      </c>
+      <c r="B3490">
+        <v>250</v>
+      </c>
+      <c r="C3490" s="2">
+        <v>45063</v>
+      </c>
+      <c r="D3490">
+        <v>137</v>
+      </c>
+      <c r="E3490">
+        <v>411</v>
+      </c>
+      <c r="F3490">
+        <v>411</v>
+      </c>
+      <c r="G3490">
+        <v>199</v>
+      </c>
+      <c r="H3490">
+        <v>468</v>
+      </c>
+      <c r="I3490">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3491" spans="1:9">
+      <c r="A3491" s="1">
+        <v>3489</v>
+      </c>
+      <c r="B3491">
+        <v>244</v>
+      </c>
+      <c r="C3491" s="2">
+        <v>45064</v>
+      </c>
+      <c r="D3491">
+        <v>133</v>
+      </c>
+      <c r="E3491">
+        <v>404</v>
+      </c>
+      <c r="F3491">
+        <v>406</v>
+      </c>
+      <c r="G3491">
+        <v>195</v>
+      </c>
+      <c r="H3491">
+        <v>463</v>
+      </c>
+      <c r="I3491">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="3492" spans="1:9">
+      <c r="A3492" s="1">
+        <v>3490</v>
+      </c>
+      <c r="B3492">
+        <v>243</v>
+      </c>
+      <c r="C3492" s="2">
+        <v>45065</v>
+      </c>
+      <c r="D3492">
+        <v>134</v>
+      </c>
+      <c r="E3492">
+        <v>403</v>
+      </c>
+      <c r="F3492">
+        <v>402</v>
+      </c>
+      <c r="G3492">
+        <v>194</v>
+      </c>
+      <c r="H3492">
+        <v>462</v>
+      </c>
+      <c r="I3492">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3493" spans="1:9">
+      <c r="A3493" s="1">
+        <v>3491</v>
+      </c>
+      <c r="B3493">
+        <v>241</v>
+      </c>
+      <c r="C3493" s="2">
+        <v>45068</v>
+      </c>
+      <c r="D3493">
+        <v>136</v>
+      </c>
+      <c r="E3493">
+        <v>403</v>
+      </c>
+      <c r="F3493">
+        <v>400</v>
+      </c>
+      <c r="G3493">
+        <v>195</v>
+      </c>
+      <c r="H3493">
+        <v>461</v>
+      </c>
+      <c r="I3493">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3494" spans="1:9">
+      <c r="A3494" s="1">
+        <v>3492</v>
+      </c>
+      <c r="B3494">
+        <v>244</v>
+      </c>
+      <c r="C3494" s="2">
+        <v>45069</v>
+      </c>
+      <c r="D3494">
+        <v>139</v>
+      </c>
+      <c r="E3494">
+        <v>406</v>
+      </c>
+      <c r="F3494">
+        <v>404</v>
+      </c>
+      <c r="G3494">
+        <v>199</v>
+      </c>
+      <c r="H3494">
+        <v>465</v>
+      </c>
+      <c r="I3494">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="3495" spans="1:9">
+      <c r="A3495" s="1">
+        <v>3493</v>
+      </c>
+      <c r="B3495">
+        <v>243</v>
+      </c>
+      <c r="C3495" s="2">
+        <v>45070</v>
+      </c>
+      <c r="D3495">
+        <v>137</v>
+      </c>
+      <c r="E3495">
+        <v>406</v>
+      </c>
+      <c r="F3495">
+        <v>403</v>
+      </c>
+      <c r="G3495">
+        <v>198</v>
+      </c>
+      <c r="H3495">
+        <v>464</v>
+      </c>
+      <c r="I3495">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3496" spans="1:9">
+      <c r="A3496" s="1">
+        <v>3494</v>
+      </c>
+      <c r="B3496">
+        <v>237</v>
+      </c>
+      <c r="C3496" s="2">
+        <v>45071</v>
+      </c>
+      <c r="D3496">
+        <v>134</v>
+      </c>
+      <c r="E3496">
+        <v>401</v>
+      </c>
+      <c r="F3496">
+        <v>400</v>
+      </c>
+      <c r="G3496">
+        <v>194</v>
+      </c>
+      <c r="H3496">
+        <v>460</v>
+      </c>
+      <c r="I3496">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3497" spans="1:9">
+      <c r="A3497" s="1">
+        <v>3495</v>
+      </c>
+      <c r="B3497">
+        <v>238</v>
+      </c>
+      <c r="C3497" s="2">
+        <v>45072</v>
+      </c>
+      <c r="D3497">
+        <v>136</v>
+      </c>
+      <c r="E3497">
+        <v>403</v>
+      </c>
+      <c r="F3497">
+        <v>401</v>
+      </c>
+      <c r="G3497">
+        <v>196</v>
+      </c>
+      <c r="H3497">
+        <v>461</v>
+      </c>
+      <c r="I3497">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3498" spans="1:9">
+      <c r="A3498" s="1">
+        <v>3496</v>
+      </c>
+      <c r="B3498">
+        <v>238</v>
+      </c>
+      <c r="C3498" s="2">
+        <v>45075</v>
+      </c>
+      <c r="D3498">
+        <v>136</v>
+      </c>
+      <c r="E3498">
+        <v>403</v>
+      </c>
+      <c r="F3498">
+        <v>401</v>
+      </c>
+      <c r="G3498">
+        <v>196</v>
+      </c>
+      <c r="H3498">
+        <v>461</v>
+      </c>
+      <c r="I3498">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="3499" spans="1:9">
+      <c r="A3499" s="1">
+        <v>3497</v>
+      </c>
+      <c r="B3499">
+        <v>240</v>
+      </c>
+      <c r="C3499" s="2">
+        <v>45076</v>
+      </c>
+      <c r="D3499">
+        <v>139</v>
+      </c>
+      <c r="E3499">
+        <v>401</v>
+      </c>
+      <c r="F3499">
+        <v>401</v>
+      </c>
+      <c r="G3499">
+        <v>197</v>
+      </c>
+      <c r="H3499">
+        <v>461</v>
+      </c>
+      <c r="I3499">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="3500" spans="1:9">
+      <c r="A3500" s="1">
+        <v>3498</v>
+      </c>
+      <c r="B3500">
+        <v>248</v>
+      </c>
+      <c r="C3500" s="2">
+        <v>45077</v>
+      </c>
+      <c r="D3500">
+        <v>145</v>
+      </c>
+      <c r="E3500">
+        <v>406</v>
+      </c>
+      <c r="F3500">
+        <v>406</v>
+      </c>
+      <c r="G3500">
+        <v>200</v>
+      </c>
+      <c r="H3500">
+        <v>465</v>
+      </c>
+      <c r="I3500">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3501" spans="1:9">
+      <c r="A3501" s="1">
+        <v>3499</v>
+      </c>
+      <c r="B3501">
+        <v>252</v>
+      </c>
+      <c r="C3501" s="2">
+        <v>45078</v>
+      </c>
+      <c r="D3501">
+        <v>144</v>
+      </c>
+      <c r="E3501">
+        <v>408</v>
+      </c>
+      <c r="F3501">
+        <v>408</v>
+      </c>
+      <c r="G3501">
+        <v>195</v>
+      </c>
+      <c r="H3501">
+        <v>467</v>
+      </c>
+      <c r="I3501">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3502" spans="1:9">
+      <c r="A3502" s="1">
+        <v>3500</v>
+      </c>
+      <c r="B3502">
+        <v>241</v>
+      </c>
+      <c r="C3502" s="2">
+        <v>45079</v>
+      </c>
+      <c r="D3502">
+        <v>136</v>
+      </c>
+      <c r="E3502">
+        <v>392</v>
+      </c>
+      <c r="F3502">
+        <v>398</v>
+      </c>
+      <c r="G3502">
+        <v>186</v>
+      </c>
+      <c r="H3502">
+        <v>455</v>
+      </c>
+      <c r="I3502">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3503" spans="1:9">
+      <c r="A3503" s="1">
+        <v>3501</v>
+      </c>
+      <c r="B3503">
+        <v>242</v>
+      </c>
+      <c r="C3503" s="2">
+        <v>45082</v>
+      </c>
+      <c r="D3503">
+        <v>139</v>
+      </c>
+      <c r="E3503">
+        <v>380</v>
+      </c>
+      <c r="F3503">
+        <v>402</v>
+      </c>
+      <c r="G3503">
+        <v>192</v>
+      </c>
+      <c r="H3503">
+        <v>456</v>
+      </c>
+      <c r="I3503">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3504" spans="1:9">
+      <c r="A3504" s="1">
+        <v>3502</v>
+      </c>
+      <c r="B3504">
+        <v>239</v>
+      </c>
+      <c r="C3504" s="2">
+        <v>45083</v>
+      </c>
+      <c r="D3504">
+        <v>140</v>
+      </c>
+      <c r="E3504">
+        <v>368</v>
+      </c>
+      <c r="F3504">
+        <v>402</v>
+      </c>
+      <c r="G3504">
+        <v>191</v>
+      </c>
+      <c r="H3504">
+        <v>449</v>
+      </c>
+      <c r="I3504">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3505" spans="1:9">
+      <c r="A3505" s="1">
+        <v>3503</v>
+      </c>
+      <c r="B3505">
+        <v>233</v>
+      </c>
+      <c r="C3505" s="2">
+        <v>45084</v>
+      </c>
+      <c r="D3505">
+        <v>135</v>
+      </c>
+      <c r="E3505">
+        <v>364</v>
+      </c>
+      <c r="F3505">
+        <v>396</v>
+      </c>
+      <c r="G3505">
+        <v>187</v>
+      </c>
+      <c r="H3505">
+        <v>442</v>
+      </c>
+      <c r="I3505">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="3506" spans="1:9">
+      <c r="A3506" s="1">
+        <v>3504</v>
+      </c>
+      <c r="B3506">
+        <v>236</v>
+      </c>
+      <c r="C3506" s="2">
+        <v>45085</v>
+      </c>
+      <c r="D3506">
+        <v>140</v>
+      </c>
+      <c r="E3506">
+        <v>368</v>
+      </c>
+      <c r="F3506">
+        <v>401</v>
+      </c>
+      <c r="G3506">
+        <v>188</v>
+      </c>
+      <c r="H3506">
+        <v>448</v>
+      </c>
+      <c r="I3506">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="3507" spans="1:9">
+      <c r="A3507" s="1">
+        <v>3505</v>
+      </c>
+      <c r="B3507">
+        <v>234</v>
+      </c>
+      <c r="C3507" s="2">
+        <v>45086</v>
+      </c>
+      <c r="D3507">
+        <v>137</v>
+      </c>
+      <c r="E3507">
+        <v>363</v>
+      </c>
+      <c r="F3507">
+        <v>398</v>
+      </c>
+      <c r="G3507">
+        <v>186</v>
+      </c>
+      <c r="H3507">
+        <v>444</v>
+      </c>
+      <c r="I3507">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3508" spans="1:9">
+      <c r="A3508" s="1">
+        <v>3506</v>
+      </c>
+      <c r="B3508">
+        <v>233</v>
+      </c>
+      <c r="C3508" s="2">
+        <v>45089</v>
+      </c>
+      <c r="D3508">
+        <v>137</v>
+      </c>
+      <c r="E3508">
+        <v>361</v>
+      </c>
+      <c r="F3508">
+        <v>397</v>
+      </c>
+      <c r="G3508">
+        <v>185</v>
+      </c>
+      <c r="H3508">
+        <v>442</v>
+      </c>
+      <c r="I3508">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="3509" spans="1:9">
+      <c r="A3509" s="1">
+        <v>3507</v>
+      </c>
+      <c r="B3509">
+        <v>227</v>
+      </c>
+      <c r="C3509" s="2">
+        <v>45090</v>
+      </c>
+      <c r="D3509">
+        <v>132</v>
+      </c>
+      <c r="E3509">
+        <v>349</v>
+      </c>
+      <c r="F3509">
+        <v>389</v>
+      </c>
+      <c r="G3509">
+        <v>178</v>
+      </c>
+      <c r="H3509">
+        <v>433</v>
+      </c>
+      <c r="I3509">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3510" spans="1:9">
+      <c r="A3510" s="1">
+        <v>3508</v>
+      </c>
+      <c r="B3510">
+        <v>228</v>
+      </c>
+      <c r="C3510" s="2">
+        <v>45091</v>
+      </c>
+      <c r="D3510">
+        <v>134</v>
+      </c>
+      <c r="E3510">
+        <v>348</v>
+      </c>
+      <c r="F3510">
+        <v>389</v>
+      </c>
+      <c r="G3510">
+        <v>180</v>
+      </c>
+      <c r="H3510">
+        <v>434</v>
+      </c>
+      <c r="I3510">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3511" spans="1:9">
+      <c r="A3511" s="1">
+        <v>3509</v>
+      </c>
+      <c r="B3511">
+        <v>231</v>
+      </c>
+      <c r="C3511" s="2">
+        <v>45092</v>
+      </c>
+      <c r="D3511">
+        <v>136</v>
+      </c>
+      <c r="E3511">
+        <v>359</v>
+      </c>
+      <c r="F3511">
+        <v>388</v>
+      </c>
+      <c r="G3511">
+        <v>182</v>
+      </c>
+      <c r="H3511">
+        <v>437</v>
+      </c>
+      <c r="I3511">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3512" spans="1:9">
+      <c r="A3512" s="1">
+        <v>3510</v>
+      </c>
+      <c r="B3512">
+        <v>229</v>
+      </c>
+      <c r="C3512" s="2">
+        <v>45093</v>
+      </c>
+      <c r="D3512">
+        <v>134</v>
+      </c>
+      <c r="E3512">
+        <v>356</v>
+      </c>
+      <c r="F3512">
+        <v>379</v>
+      </c>
+      <c r="G3512">
+        <v>178</v>
+      </c>
+      <c r="H3512">
+        <v>432</v>
+      </c>
+      <c r="I3512">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3513" spans="1:9">
+      <c r="A3513" s="1">
+        <v>3511</v>
+      </c>
+      <c r="B3513">
+        <v>229</v>
+      </c>
+      <c r="C3513" s="2">
+        <v>45096</v>
+      </c>
+      <c r="D3513">
+        <v>134</v>
+      </c>
+      <c r="E3513">
+        <v>356</v>
+      </c>
+      <c r="F3513">
+        <v>379</v>
+      </c>
+      <c r="G3513">
+        <v>178</v>
+      </c>
+      <c r="H3513">
+        <v>432</v>
+      </c>
+      <c r="I3513">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="3514" spans="1:9">
+      <c r="A3514" s="1">
+        <v>3512</v>
+      </c>
+      <c r="B3514">
+        <v>232</v>
+      </c>
+      <c r="C3514" s="2">
+        <v>45097</v>
+      </c>
+      <c r="D3514">
+        <v>136</v>
+      </c>
+      <c r="E3514">
+        <v>362</v>
+      </c>
+      <c r="F3514">
+        <v>381</v>
+      </c>
+      <c r="G3514">
+        <v>179</v>
+      </c>
+      <c r="H3514">
+        <v>435</v>
+      </c>
+      <c r="I3514">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="3515" spans="1:9">
+      <c r="A3515" s="1">
+        <v>3513</v>
+      </c>
+      <c r="B3515">
+        <v>232</v>
+      </c>
+      <c r="C3515" s="2">
+        <v>45098</v>
+      </c>
+      <c r="D3515">
+        <v>136</v>
+      </c>
+      <c r="E3515">
+        <v>365</v>
+      </c>
+      <c r="F3515">
+        <v>379</v>
+      </c>
+      <c r="G3515">
+        <v>178</v>
+      </c>
+      <c r="H3515">
+        <v>431</v>
+      </c>
+      <c r="I3515">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3516" spans="1:9">
+      <c r="A3516" s="1">
+        <v>3514</v>
+      </c>
+      <c r="B3516">
+        <v>228</v>
+      </c>
+      <c r="C3516" s="2">
+        <v>45099</v>
+      </c>
+      <c r="D3516">
+        <v>132</v>
+      </c>
+      <c r="E3516">
+        <v>361</v>
+      </c>
+      <c r="F3516">
+        <v>373</v>
+      </c>
+      <c r="G3516">
+        <v>172</v>
+      </c>
+      <c r="H3516">
+        <v>424</v>
+      </c>
+      <c r="I3516">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3517" spans="1:9">
+      <c r="A3517" s="1">
+        <v>3515</v>
+      </c>
+      <c r="B3517">
+        <v>232</v>
+      </c>
+      <c r="C3517" s="2">
+        <v>45100</v>
+      </c>
+      <c r="D3517">
+        <v>136</v>
+      </c>
+      <c r="E3517">
+        <v>365</v>
+      </c>
+      <c r="F3517">
+        <v>377</v>
+      </c>
+      <c r="G3517">
+        <v>175</v>
+      </c>
+      <c r="H3517">
+        <v>428</v>
+      </c>
+      <c r="I3517">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3518" spans="1:9">
+      <c r="A3518" s="1">
+        <v>3516</v>
+      </c>
+      <c r="B3518">
+        <v>232</v>
+      </c>
+      <c r="C3518" s="2">
+        <v>45103</v>
+      </c>
+      <c r="D3518">
+        <v>135</v>
+      </c>
+      <c r="E3518">
+        <v>367</v>
+      </c>
+      <c r="F3518">
+        <v>377</v>
+      </c>
+      <c r="G3518">
+        <v>176</v>
+      </c>
+      <c r="H3518">
+        <v>425</v>
+      </c>
+      <c r="I3518">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3519" spans="1:9">
+      <c r="A3519" s="1">
+        <v>3517</v>
+      </c>
+      <c r="B3519">
+        <v>230</v>
+      </c>
+      <c r="C3519" s="2">
+        <v>45104</v>
+      </c>
+      <c r="D3519">
+        <v>132</v>
+      </c>
+      <c r="E3519">
+        <v>364</v>
+      </c>
+      <c r="F3519">
+        <v>372</v>
+      </c>
+      <c r="G3519">
+        <v>174</v>
+      </c>
+      <c r="H3519">
+        <v>423</v>
+      </c>
+      <c r="I3519">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="3520" spans="1:9">
+      <c r="A3520" s="1">
+        <v>3518</v>
+      </c>
+      <c r="B3520">
+        <v>234</v>
+      </c>
+      <c r="C3520" s="2">
+        <v>45105</v>
+      </c>
+      <c r="D3520">
+        <v>136</v>
+      </c>
+      <c r="E3520">
+        <v>373</v>
+      </c>
+      <c r="F3520">
+        <v>377</v>
+      </c>
+      <c r="G3520">
+        <v>178</v>
+      </c>
+      <c r="H3520">
+        <v>426</v>
+      </c>
+      <c r="I3520">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3521" spans="1:9">
+      <c r="A3521" s="1">
+        <v>3519</v>
+      </c>
+      <c r="B3521">
+        <v>229</v>
+      </c>
+      <c r="C3521" s="2">
+        <v>45106</v>
+      </c>
+      <c r="D3521">
+        <v>132</v>
+      </c>
+      <c r="E3521">
+        <v>370</v>
+      </c>
+      <c r="F3521">
+        <v>376</v>
+      </c>
+      <c r="G3521">
+        <v>174</v>
+      </c>
+      <c r="H3521">
+        <v>424</v>
+      </c>
+      <c r="I3521">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="3522" spans="1:9">
+      <c r="A3522" s="1">
+        <v>3520</v>
+      </c>
+      <c r="B3522">
+        <v>230</v>
+      </c>
+      <c r="C3522" s="2">
+        <v>45107</v>
+      </c>
+      <c r="D3522">
+        <v>132</v>
+      </c>
+      <c r="E3522">
+        <v>366</v>
+      </c>
+      <c r="F3522">
+        <v>373</v>
+      </c>
+      <c r="G3522">
+        <v>172</v>
+      </c>
+      <c r="H3522">
+        <v>421</v>
+      </c>
+      <c r="I3522">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3523" spans="1:9">
+      <c r="A3523" s="1">
+        <v>3521</v>
+      </c>
+      <c r="B3523">
+        <v>227</v>
+      </c>
+      <c r="C3523" s="2">
+        <v>45110</v>
+      </c>
+      <c r="D3523">
+        <v>129</v>
+      </c>
+      <c r="E3523">
+        <v>361</v>
+      </c>
+      <c r="F3523">
+        <v>368</v>
+      </c>
+      <c r="G3523">
+        <v>168</v>
+      </c>
+      <c r="H3523">
+        <v>415</v>
+      </c>
+      <c r="I3523">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3524" spans="1:9">
+      <c r="A3524" s="1">
+        <v>3522</v>
+      </c>
+      <c r="B3524">
+        <v>227</v>
+      </c>
+      <c r="C3524" s="2">
+        <v>45111</v>
+      </c>
+      <c r="D3524">
+        <v>129</v>
+      </c>
+      <c r="E3524">
+        <v>361</v>
+      </c>
+      <c r="F3524">
+        <v>368</v>
+      </c>
+      <c r="G3524">
+        <v>168</v>
+      </c>
+      <c r="H3524">
+        <v>415</v>
+      </c>
+      <c r="I3524">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3525" spans="1:9">
+      <c r="A3525" s="1">
+        <v>3523</v>
+      </c>
+      <c r="B3525">
+        <v>222</v>
+      </c>
+      <c r="C3525" s="2">
+        <v>45112</v>
+      </c>
+      <c r="D3525">
+        <v>126</v>
+      </c>
+      <c r="E3525">
+        <v>357</v>
+      </c>
+      <c r="F3525">
+        <v>363</v>
+      </c>
+      <c r="G3525">
+        <v>163</v>
+      </c>
+      <c r="H3525">
+        <v>409</v>
+      </c>
+      <c r="I3525">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3526" spans="1:9">
+      <c r="A3526" s="1">
+        <v>3524</v>
+      </c>
+      <c r="B3526">
+        <v>224</v>
+      </c>
+      <c r="C3526" s="2">
+        <v>45113</v>
+      </c>
+      <c r="D3526">
+        <v>126</v>
+      </c>
+      <c r="E3526">
+        <v>363</v>
+      </c>
+      <c r="F3526">
+        <v>367</v>
+      </c>
+      <c r="G3526">
+        <v>165</v>
+      </c>
+      <c r="H3526">
+        <v>416</v>
+      </c>
+      <c r="I3526">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3527" spans="1:9">
+      <c r="A3527" s="1">
+        <v>3525</v>
+      </c>
+      <c r="B3527">
+        <v>225</v>
+      </c>
+      <c r="C3527" s="2">
+        <v>45114</v>
+      </c>
+      <c r="D3527">
+        <v>126</v>
+      </c>
+      <c r="E3527">
+        <v>365</v>
+      </c>
+      <c r="F3527">
+        <v>367</v>
+      </c>
+      <c r="G3527">
+        <v>167</v>
+      </c>
+      <c r="H3527">
+        <v>417</v>
+      </c>
+      <c r="I3527">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3528" spans="1:9">
+      <c r="A3528" s="1">
+        <v>3526</v>
+      </c>
+      <c r="B3528">
+        <v>229</v>
+      </c>
+      <c r="C3528" s="2">
+        <v>45117</v>
+      </c>
+      <c r="D3528">
+        <v>128</v>
+      </c>
+      <c r="E3528">
+        <v>368</v>
+      </c>
+      <c r="F3528">
+        <v>369</v>
+      </c>
+      <c r="G3528">
+        <v>168</v>
+      </c>
+      <c r="H3528">
+        <v>418</v>
+      </c>
+      <c r="I3528">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3529" spans="1:9">
+      <c r="A3529" s="1">
+        <v>3527</v>
+      </c>
+      <c r="B3529">
+        <v>224</v>
+      </c>
+      <c r="C3529" s="2">
+        <v>45118</v>
+      </c>
+      <c r="D3529">
+        <v>125</v>
+      </c>
+      <c r="E3529">
+        <v>362</v>
+      </c>
+      <c r="F3529">
+        <v>367</v>
+      </c>
+      <c r="G3529">
+        <v>166</v>
+      </c>
+      <c r="H3529">
+        <v>412</v>
+      </c>
+      <c r="I3529">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3530" spans="1:9">
+      <c r="A3530" s="1">
+        <v>3528</v>
+      </c>
+      <c r="B3530">
+        <v>226</v>
+      </c>
+      <c r="C3530" s="2">
+        <v>45119</v>
+      </c>
+      <c r="D3530">
+        <v>130</v>
+      </c>
+      <c r="E3530">
+        <v>358</v>
+      </c>
+      <c r="F3530">
+        <v>369</v>
+      </c>
+      <c r="G3530">
+        <v>170</v>
+      </c>
+      <c r="H3530">
+        <v>415</v>
+      </c>
+      <c r="I3530">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
